--- a/db/dictionary.xlsx
+++ b/db/dictionary.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Library\github\timeline\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DBA363-FF30-47B9-B895-C1622EA4DCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026A7738-AC66-428E-8A8A-ED9EB403AE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35385" yWindow="810" windowWidth="17940" windowHeight="14235" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="240" windowWidth="23250" windowHeight="15030" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="en" sheetId="1" r:id="rId1"/>
-    <sheet name="de" sheetId="2" r:id="rId2"/>
+    <sheet name="English" sheetId="1" r:id="rId1"/>
+    <sheet name="Deutsch" sheetId="2" r:id="rId2"/>
+    <sheet name="Vietnamese" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -26,14 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="233">
   <si>
     <t>key</t>
   </si>
   <si>
-    <t>en</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -160,9 +158,6 @@
     <t>Moses</t>
   </si>
   <si>
-    <t>de</t>
-  </si>
-  <si>
     <t>Enosch</t>
   </si>
   <si>
@@ -197,6 +192,540 @@
   </si>
   <si>
     <t>u.Z.</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>alternative</t>
+  </si>
+  <si>
+    <t>B.C.E.</t>
+  </si>
+  <si>
+    <t>Ma·hala·lel</t>
+  </si>
+  <si>
+    <t>Me·thuse·lah</t>
+  </si>
+  <si>
+    <t>Ar·pachshad</t>
+  </si>
+  <si>
+    <t>Rehoboam</t>
+  </si>
+  <si>
+    <t>first king of southern kingdom of Juda</t>
+  </si>
+  <si>
+    <t>Abijah</t>
+  </si>
+  <si>
+    <t>Abijah (Abijam)</t>
+  </si>
+  <si>
+    <t>3 years, also Abijam</t>
+  </si>
+  <si>
+    <t>Asa</t>
+  </si>
+  <si>
+    <t>Jehoshaphat</t>
+  </si>
+  <si>
+    <t>bce_float = -y+1 - (12-m)/12 – (31-d)/360</t>
+  </si>
+  <si>
+    <t>Jehoram2</t>
+  </si>
+  <si>
+    <t>Jehoram</t>
+  </si>
+  <si>
+    <t>Ahaziah</t>
+  </si>
+  <si>
+    <t>Athaliah</t>
+  </si>
+  <si>
+    <t>Queen Athaliah</t>
+  </si>
+  <si>
+    <t>Jehoash</t>
+  </si>
+  <si>
+    <t>Amaziah</t>
+  </si>
+  <si>
+    <t>Uzziah</t>
+  </si>
+  <si>
+    <t>Uzziah (Azariah)</t>
+  </si>
+  <si>
+    <t>also Azariah</t>
+  </si>
+  <si>
+    <t>Jotham</t>
+  </si>
+  <si>
+    <t>Ahaz</t>
+  </si>
+  <si>
+    <t>Hezekiah</t>
+  </si>
+  <si>
+    <t>Manasseh</t>
+  </si>
+  <si>
+    <t>Amon</t>
+  </si>
+  <si>
+    <t>Josiah</t>
+  </si>
+  <si>
+    <t>Jehoahaz</t>
+  </si>
+  <si>
+    <t>Only 3 months</t>
+  </si>
+  <si>
+    <t>Jehoiakim</t>
+  </si>
+  <si>
+    <t>Jehoiachin</t>
+  </si>
+  <si>
+    <t>Only 3 months 10 days</t>
+  </si>
+  <si>
+    <t>Zedekia</t>
+  </si>
+  <si>
+    <t>Jeroboam</t>
+  </si>
+  <si>
+    <t>first king of northern 10-tribe kingdom</t>
+  </si>
+  <si>
+    <t>Nadab</t>
+  </si>
+  <si>
+    <t>less than 2</t>
+  </si>
+  <si>
+    <t>Baasha</t>
+  </si>
+  <si>
+    <t>Elah</t>
+  </si>
+  <si>
+    <t>Zimri</t>
+  </si>
+  <si>
+    <t>Only 7 days in ca. 751 BCE</t>
+  </si>
+  <si>
+    <t>OmriTibni</t>
+  </si>
+  <si>
+    <t>Omri and Tibni together</t>
+  </si>
+  <si>
+    <t>4 years Omri and Tibni</t>
+  </si>
+  <si>
+    <t>Omri</t>
+  </si>
+  <si>
+    <t>Omri (alone)</t>
+  </si>
+  <si>
+    <t>from 947 Omri alone</t>
+  </si>
+  <si>
+    <t>Ahab</t>
+  </si>
+  <si>
+    <t>Jehu</t>
+  </si>
+  <si>
+    <t>Jeoahaz</t>
+  </si>
+  <si>
+    <t>JeoahazJehoash</t>
+  </si>
+  <si>
+    <t>Jeoahaz and Jehoash</t>
+  </si>
+  <si>
+    <t>For 3 years Jeoahaz and Jeoash reigned together</t>
+  </si>
+  <si>
+    <t>Jehoash2</t>
+  </si>
+  <si>
+    <t>Jehoash (alone)</t>
+  </si>
+  <si>
+    <t>Jeroboam2</t>
+  </si>
+  <si>
+    <t>Jeroboam II</t>
+  </si>
+  <si>
+    <t>Zechariah</t>
+  </si>
+  <si>
+    <t>reign only recorded 6 months, probably only established 792 BCE</t>
+  </si>
+  <si>
+    <t>Schallum</t>
+  </si>
+  <si>
+    <t>only one month</t>
+  </si>
+  <si>
+    <t>Menahem</t>
+  </si>
+  <si>
+    <t>Pekahiah</t>
+  </si>
+  <si>
+    <t>Pekah</t>
+  </si>
+  <si>
+    <t>Hoshea</t>
+  </si>
+  <si>
+    <t>9 years from c. 748</t>
+  </si>
+  <si>
+    <t>Saul</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Solomo</t>
+  </si>
+  <si>
+    <t>moses2</t>
+  </si>
+  <si>
+    <t>moses2_l</t>
+  </si>
+  <si>
+    <t>1593 to 1473 BCE – 120 years</t>
+  </si>
+  <si>
+    <t>moses2_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>wilderness</t>
+  </si>
+  <si>
+    <t>wilderness_l</t>
+  </si>
+  <si>
+    <t>Israel in the wilderness 1513 to 1473 BCE – 40 years</t>
+  </si>
+  <si>
+    <t>wilderness_r</t>
+  </si>
+  <si>
+    <t>judges</t>
+  </si>
+  <si>
+    <t>Time of the judges</t>
+  </si>
+  <si>
+    <t>judges_l</t>
+  </si>
+  <si>
+    <t>1473 to 1117 BCE – 356 years</t>
+  </si>
+  <si>
+    <t>judges_r</t>
+  </si>
+  <si>
+    <t>temple</t>
+  </si>
+  <si>
+    <t>479 years until the temple construction – 1 Kings 6:1</t>
+  </si>
+  <si>
+    <t>temple_l</t>
+  </si>
+  <si>
+    <t>Nisan 1513 BCE to Ziv 1034 BCE</t>
+  </si>
+  <si>
+    <t>temple_r</t>
+  </si>
+  <si>
+    <t>1034 BCE</t>
+  </si>
+  <si>
+    <t>jesus_life</t>
+  </si>
+  <si>
+    <t>jesus_life_l</t>
+  </si>
+  <si>
+    <t>Jesus born 2 BCE</t>
+  </si>
+  <si>
+    <t>jesus_life_r</t>
+  </si>
+  <si>
+    <t>Executed Nisan 14th, 33 CE</t>
+  </si>
+  <si>
+    <t>jesus_service</t>
+  </si>
+  <si>
+    <t>jesus_service_l</t>
+  </si>
+  <si>
+    <t>Jesus baptized autumn 29 CE</t>
+  </si>
+  <si>
+    <t>jesus_service_r</t>
+  </si>
+  <si>
+    <t>3.5 years of Jesus service</t>
+  </si>
+  <si>
+    <t>69weeks</t>
+  </si>
+  <si>
+    <t>69 weeks to the Messiah – Daniel 9:25</t>
+  </si>
+  <si>
+    <t>69weeks_l</t>
+  </si>
+  <si>
+    <t>rebuild Jerusalem 455 BCE</t>
+  </si>
+  <si>
+    <t>69weeks_r</t>
+  </si>
+  <si>
+    <t>Jesus baptized</t>
+  </si>
+  <si>
+    <t>exile</t>
+  </si>
+  <si>
+    <t>exile_l</t>
+  </si>
+  <si>
+    <t>exile_r</t>
+  </si>
+  <si>
+    <t>607 to 537 BCE – 70 years (Jeremiah 25:11)</t>
+  </si>
+  <si>
+    <t>7times</t>
+  </si>
+  <si>
+    <t>7 times – 2520 years to the Messianic Kingdom 1914 CE (Daniel 4:23)</t>
+  </si>
+  <si>
+    <t>7times_l</t>
+  </si>
+  <si>
+    <t>7times_r</t>
+  </si>
+  <si>
+    <t>ww1</t>
+  </si>
+  <si>
+    <t>ww1_l</t>
+  </si>
+  <si>
+    <t>World War I – 1914–1918 CE</t>
+  </si>
+  <si>
+    <t>ww1_r</t>
+  </si>
+  <si>
+    <t>ww2</t>
+  </si>
+  <si>
+    <t>ww2_l</t>
+  </si>
+  <si>
+    <t>World War II – 1939–1945 CE</t>
+  </si>
+  <si>
+    <t>ww2_r</t>
+  </si>
+  <si>
+    <t>30_year_war</t>
+  </si>
+  <si>
+    <t>30_year_war_l</t>
+  </si>
+  <si>
+    <t>30 year war in Europe 1618-1648 CE</t>
+  </si>
+  <si>
+    <t>30_year_war_r</t>
+  </si>
+  <si>
+    <t>joshua</t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>joshua_l</t>
+  </si>
+  <si>
+    <t>110 years</t>
+  </si>
+  <si>
+    <t>joshua_r</t>
+  </si>
+  <si>
+    <t>caleb</t>
+  </si>
+  <si>
+    <t>Caleb</t>
+  </si>
+  <si>
+    <t>caleb_l</t>
+  </si>
+  <si>
+    <t>more than 85 years</t>
+  </si>
+  <si>
+    <t>caleb_r</t>
+  </si>
+  <si>
+    <t>exodus</t>
+  </si>
+  <si>
+    <t>Exodus from Egypt on Nisan 14th, 1513 BCE</t>
+  </si>
+  <si>
+    <t>missionary1</t>
+  </si>
+  <si>
+    <t>missionary1_l</t>
+  </si>
+  <si>
+    <t>missionary1_r</t>
+  </si>
+  <si>
+    <t>First Missionary Journey of Paul, c. 47-48 C.E. with Barnabas and John Mark</t>
+  </si>
+  <si>
+    <t>missionary2</t>
+  </si>
+  <si>
+    <t>missionary2_l</t>
+  </si>
+  <si>
+    <t>missionary2_r</t>
+  </si>
+  <si>
+    <t>Second Missionary Journey c. 49-52 C.E with Silas (Silvanus)</t>
+  </si>
+  <si>
+    <t>missionary3</t>
+  </si>
+  <si>
+    <t>missionary3_l</t>
+  </si>
+  <si>
+    <t>missionary3_r</t>
+  </si>
+  <si>
+    <t>Third Missionary Journey c. 52-56 C.E. then arrested and imprisoned in Rome 58 C.E.</t>
+  </si>
+  <si>
+    <t>circumcision</t>
+  </si>
+  <si>
+    <t>circumcision_l</t>
+  </si>
+  <si>
+    <t>circumcision_r</t>
+  </si>
+  <si>
+    <t>Circumcision issue at Antioch, conference in Jerusalem c. 49 C.E.</t>
+  </si>
+  <si>
+    <t>caesarea</t>
+  </si>
+  <si>
+    <t>caesarea_l</t>
+  </si>
+  <si>
+    <t>caesarea_r</t>
+  </si>
+  <si>
+    <t>Paul in custody in Caesarea c. 56-58 C.E.</t>
+  </si>
+  <si>
+    <t>rome1</t>
+  </si>
+  <si>
+    <t>rome1_l</t>
+  </si>
+  <si>
+    <t>rome1_r</t>
+  </si>
+  <si>
+    <t>Paul’s first imprisonment in Rome c. 59-61 C.E.</t>
+  </si>
+  <si>
+    <t>rome2</t>
+  </si>
+  <si>
+    <t>rome2_l</t>
+  </si>
+  <si>
+    <t>rome2_r</t>
+  </si>
+  <si>
+    <t>Paul’s second improsionment in Rome c. 65 CE, 2 Timothy written, Paul executed</t>
+  </si>
+  <si>
+    <t>erster König des südlichen Zweistämmereiches</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>C.E.</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>persons</t>
+  </si>
+  <si>
+    <t>prophets</t>
+  </si>
+  <si>
+    <t>kings</t>
+  </si>
+  <si>
+    <t>periods</t>
+  </si>
+  <si>
+    <t>events</t>
+  </si>
+  <si>
+    <t>Deluge</t>
   </si>
 </sst>
 </file>
@@ -427,240 +956,2445 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C88" sqref="C88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>102</v>
+      </c>
+      <c r="B64" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>111</v>
+      </c>
+      <c r="B71" t="s">
+        <v>112</v>
+      </c>
+      <c r="C71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>113</v>
+      </c>
+      <c r="B72" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>115</v>
+      </c>
+      <c r="B73" t="s">
+        <v>115</v>
+      </c>
+      <c r="C73" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>117</v>
+      </c>
+      <c r="B74" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>119</v>
+      </c>
+      <c r="B75" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>120</v>
+      </c>
+      <c r="B76" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>122</v>
+      </c>
+      <c r="B78" t="s">
+        <v>122</v>
+      </c>
+      <c r="C78" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>124</v>
+      </c>
+      <c r="B79" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>125</v>
+      </c>
+      <c r="B80" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>126</v>
+      </c>
+      <c r="B81" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>127</v>
+      </c>
+      <c r="B82" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>128</v>
+      </c>
+      <c r="B83" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>130</v>
+      </c>
+      <c r="B84" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>132</v>
+      </c>
+      <c r="B85" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>133</v>
+      </c>
+      <c r="B86" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>135</v>
+      </c>
+      <c r="B87" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>136</v>
+      </c>
+      <c r="B88" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>138</v>
+      </c>
+      <c r="B89" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>140</v>
+      </c>
+      <c r="B90" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>141</v>
+      </c>
+      <c r="B91" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>143</v>
+      </c>
+      <c r="B92" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>145</v>
+      </c>
+      <c r="B93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C93" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>147</v>
+      </c>
+      <c r="B94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>148</v>
+      </c>
+      <c r="B95" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>150</v>
+      </c>
+      <c r="B96" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>152</v>
+      </c>
+      <c r="B97" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>153</v>
+      </c>
+      <c r="B98" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>155</v>
+      </c>
+      <c r="B99" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>157</v>
+      </c>
+      <c r="B100" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>159</v>
+      </c>
+      <c r="B101" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>161</v>
+      </c>
+      <c r="B102" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>163</v>
+      </c>
+      <c r="B103" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>164</v>
+      </c>
+      <c r="B104" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>165</v>
+      </c>
+      <c r="B105" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>167</v>
+      </c>
+      <c r="B106" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>169</v>
+      </c>
+      <c r="B107" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>170</v>
+      </c>
+      <c r="B108" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>171</v>
+      </c>
+      <c r="B109" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>172</v>
+      </c>
+      <c r="B110" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>174</v>
+      </c>
+      <c r="B111" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>175</v>
+      </c>
+      <c r="B112" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>176</v>
+      </c>
+      <c r="B113" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>178</v>
+      </c>
+      <c r="B114" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>179</v>
+      </c>
+      <c r="B115" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>180</v>
+      </c>
+      <c r="B116" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>182</v>
+      </c>
+      <c r="B117" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>183</v>
+      </c>
+      <c r="B118" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>185</v>
+      </c>
+      <c r="B119" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>187</v>
+      </c>
+      <c r="B120" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>188</v>
+      </c>
+      <c r="B121" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>190</v>
+      </c>
+      <c r="B122" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>192</v>
+      </c>
+      <c r="B123" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>193</v>
+      </c>
+      <c r="B124" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>195</v>
+      </c>
+      <c r="B125" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>196</v>
+      </c>
+      <c r="B126" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>197</v>
+      </c>
+      <c r="B127" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>199</v>
+      </c>
+      <c r="B128" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>200</v>
+      </c>
+      <c r="B129" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>201</v>
+      </c>
+      <c r="B130" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>203</v>
+      </c>
+      <c r="B131" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>204</v>
+      </c>
+      <c r="B132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>205</v>
+      </c>
+      <c r="B133" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>207</v>
+      </c>
+      <c r="B134" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>208</v>
+      </c>
+      <c r="B135" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>209</v>
+      </c>
+      <c r="B136" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>211</v>
+      </c>
+      <c r="B137" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>212</v>
+      </c>
+      <c r="B138" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>213</v>
+      </c>
+      <c r="B139" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>215</v>
+      </c>
+      <c r="B140" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>216</v>
+      </c>
+      <c r="B141" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>217</v>
+      </c>
+      <c r="B142" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>219</v>
+      </c>
+      <c r="B143" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>220</v>
+      </c>
+      <c r="B144" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>221</v>
+      </c>
+      <c r="B145" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6490B5-0C6D-437A-8433-B9F550804033}">
+  <dimension ref="A1:C136"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
       <c r="B7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
       <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
       <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
       <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
       <c r="B11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
       <c r="B12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
       <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
       <c r="B16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
       <c r="B17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
       <c r="B19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
       <c r="B20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
       <c r="B21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
       <c r="B22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>37</v>
-      </c>
       <c r="B23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>39</v>
       </c>
-      <c r="B24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>40</v>
       </c>
-      <c r="B25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>41</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>42</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" t="s">
-        <v>43</v>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>115</v>
+      </c>
+      <c r="B64" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>121</v>
+      </c>
+      <c r="B68" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>124</v>
+      </c>
+      <c r="B70" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>125</v>
+      </c>
+      <c r="B71" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>126</v>
+      </c>
+      <c r="B72" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>127</v>
+      </c>
+      <c r="B73" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>130</v>
+      </c>
+      <c r="B75" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>132</v>
+      </c>
+      <c r="B76" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>133</v>
+      </c>
+      <c r="B77" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>135</v>
+      </c>
+      <c r="B78" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>136</v>
+      </c>
+      <c r="B79" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>138</v>
+      </c>
+      <c r="B80" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>140</v>
+      </c>
+      <c r="B81" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>141</v>
+      </c>
+      <c r="B82" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>143</v>
+      </c>
+      <c r="B83" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>145</v>
+      </c>
+      <c r="B84" t="s">
+        <v>131</v>
+      </c>
+      <c r="C84" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>147</v>
+      </c>
+      <c r="B85" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>148</v>
+      </c>
+      <c r="B86" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>150</v>
+      </c>
+      <c r="B87" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>152</v>
+      </c>
+      <c r="B88" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>153</v>
+      </c>
+      <c r="B89" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>155</v>
+      </c>
+      <c r="B90" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>157</v>
+      </c>
+      <c r="B91" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>159</v>
+      </c>
+      <c r="B92" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>161</v>
+      </c>
+      <c r="B93" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>163</v>
+      </c>
+      <c r="B94" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>164</v>
+      </c>
+      <c r="B95" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>165</v>
+      </c>
+      <c r="B96" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>167</v>
+      </c>
+      <c r="B97" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>169</v>
+      </c>
+      <c r="B98" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>170</v>
+      </c>
+      <c r="B99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>171</v>
+      </c>
+      <c r="B100" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>172</v>
+      </c>
+      <c r="B101" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>174</v>
+      </c>
+      <c r="B102" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>175</v>
+      </c>
+      <c r="B103" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>176</v>
+      </c>
+      <c r="B104" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>178</v>
+      </c>
+      <c r="B105" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>179</v>
+      </c>
+      <c r="B106" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>180</v>
+      </c>
+      <c r="B107" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>182</v>
+      </c>
+      <c r="B108" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>183</v>
+      </c>
+      <c r="B109" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>185</v>
+      </c>
+      <c r="B110" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>187</v>
+      </c>
+      <c r="B111" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>188</v>
+      </c>
+      <c r="B112" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>190</v>
+      </c>
+      <c r="B113" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>192</v>
+      </c>
+      <c r="B114" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>193</v>
+      </c>
+      <c r="B115" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>195</v>
+      </c>
+      <c r="B116" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>196</v>
+      </c>
+      <c r="B117" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>197</v>
+      </c>
+      <c r="B118" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>199</v>
+      </c>
+      <c r="B119" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>200</v>
+      </c>
+      <c r="B120" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>201</v>
+      </c>
+      <c r="B121" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>203</v>
+      </c>
+      <c r="B122" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>204</v>
+      </c>
+      <c r="B123" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>205</v>
+      </c>
+      <c r="B124" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>207</v>
+      </c>
+      <c r="B125" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>208</v>
+      </c>
+      <c r="B126" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>209</v>
+      </c>
+      <c r="B127" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>211</v>
+      </c>
+      <c r="B128" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>212</v>
+      </c>
+      <c r="B129" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>213</v>
+      </c>
+      <c r="B130" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>215</v>
+      </c>
+      <c r="B131" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>216</v>
+      </c>
+      <c r="B132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>217</v>
+      </c>
+      <c r="B133" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>219</v>
+      </c>
+      <c r="B134" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>220</v>
+      </c>
+      <c r="B135" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>221</v>
+      </c>
+      <c r="B136" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -669,18 +3403,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6490B5-0C6D-437A-8433-B9F550804033}">
-  <dimension ref="A1:B28"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD92866-9610-471E-81FF-54D633F34B16}">
+  <dimension ref="A1:B145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -688,227 +3422,1162 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>224</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>226</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>227</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>229</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>230</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>231</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>232</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>102</v>
+      </c>
+      <c r="B64" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>111</v>
+      </c>
+      <c r="B71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>113</v>
+      </c>
+      <c r="B72" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>115</v>
+      </c>
+      <c r="B73" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>117</v>
+      </c>
+      <c r="B74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>119</v>
+      </c>
+      <c r="B75" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>120</v>
+      </c>
+      <c r="B76" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>122</v>
+      </c>
+      <c r="B78" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>124</v>
+      </c>
+      <c r="B79" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>125</v>
+      </c>
+      <c r="B80" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>126</v>
+      </c>
+      <c r="B81" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>127</v>
+      </c>
+      <c r="B82" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>128</v>
+      </c>
+      <c r="B83" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>130</v>
+      </c>
+      <c r="B84" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>132</v>
+      </c>
+      <c r="B85" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>133</v>
+      </c>
+      <c r="B86" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>135</v>
+      </c>
+      <c r="B87" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>136</v>
+      </c>
+      <c r="B88" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>138</v>
+      </c>
+      <c r="B89" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>140</v>
+      </c>
+      <c r="B90" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>141</v>
+      </c>
+      <c r="B91" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>143</v>
+      </c>
+      <c r="B92" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>145</v>
+      </c>
+      <c r="B93" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>147</v>
+      </c>
+      <c r="B94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>148</v>
+      </c>
+      <c r="B95" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>150</v>
+      </c>
+      <c r="B96" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>152</v>
+      </c>
+      <c r="B97" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>153</v>
+      </c>
+      <c r="B98" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>155</v>
+      </c>
+      <c r="B99" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>157</v>
+      </c>
+      <c r="B100" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>159</v>
+      </c>
+      <c r="B101" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>161</v>
+      </c>
+      <c r="B102" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>163</v>
+      </c>
+      <c r="B103" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>164</v>
+      </c>
+      <c r="B104" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>165</v>
+      </c>
+      <c r="B105" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>167</v>
+      </c>
+      <c r="B106" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>169</v>
+      </c>
+      <c r="B107" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>170</v>
+      </c>
+      <c r="B108" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>171</v>
+      </c>
+      <c r="B109" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>172</v>
+      </c>
+      <c r="B110" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>174</v>
+      </c>
+      <c r="B111" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>175</v>
+      </c>
+      <c r="B112" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>176</v>
+      </c>
+      <c r="B113" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>178</v>
+      </c>
+      <c r="B114" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>179</v>
+      </c>
+      <c r="B115" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>180</v>
+      </c>
+      <c r="B116" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>182</v>
+      </c>
+      <c r="B117" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>183</v>
+      </c>
+      <c r="B118" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>185</v>
+      </c>
+      <c r="B119" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>187</v>
+      </c>
+      <c r="B120" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>188</v>
+      </c>
+      <c r="B121" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>190</v>
+      </c>
+      <c r="B122" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>192</v>
+      </c>
+      <c r="B123" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>193</v>
+      </c>
+      <c r="B124" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>195</v>
+      </c>
+      <c r="B125" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>196</v>
+      </c>
+      <c r="B126" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>197</v>
+      </c>
+      <c r="B127" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>199</v>
+      </c>
+      <c r="B128" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>200</v>
+      </c>
+      <c r="B129" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>201</v>
+      </c>
+      <c r="B130" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>203</v>
+      </c>
+      <c r="B131" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>204</v>
+      </c>
+      <c r="B132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>205</v>
+      </c>
+      <c r="B133" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>207</v>
+      </c>
+      <c r="B134" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>208</v>
+      </c>
+      <c r="B135" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>209</v>
+      </c>
+      <c r="B136" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>211</v>
+      </c>
+      <c r="B137" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>212</v>
+      </c>
+      <c r="B138" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>213</v>
+      </c>
+      <c r="B139" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>215</v>
+      </c>
+      <c r="B140" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>216</v>
+      </c>
+      <c r="B141" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>217</v>
+      </c>
+      <c r="B142" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>219</v>
+      </c>
+      <c r="B143" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>220</v>
+      </c>
+      <c r="B144" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>221</v>
+      </c>
+      <c r="B145" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/db/dictionary.xlsx
+++ b/db/dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Library\github\timeline\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026A7738-AC66-428E-8A8A-ED9EB403AE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED97946-AE4E-4944-B19A-E09007B4CC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="240" windowWidth="23250" windowHeight="15030" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="240" windowWidth="23250" windowHeight="15030" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="English" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="503">
   <si>
     <t>key</t>
   </si>
@@ -158,27 +158,9 @@
     <t>Moses</t>
   </si>
   <si>
-    <t>Enosch</t>
-  </si>
-  <si>
-    <t>Henoch</t>
-  </si>
-  <si>
-    <t>Methusalah</t>
-  </si>
-  <si>
     <t>Sem</t>
   </si>
   <si>
-    <t>Arpachschad</t>
-  </si>
-  <si>
-    <t>Schelach</t>
-  </si>
-  <si>
-    <t>Terach</t>
-  </si>
-  <si>
     <t>Isaak</t>
   </si>
   <si>
@@ -413,291 +395,102 @@
     <t>moses2</t>
   </si>
   <si>
-    <t>moses2_l</t>
-  </si>
-  <si>
-    <t>1593 to 1473 BCE – 120 years</t>
-  </si>
-  <si>
-    <t>moses2_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>wilderness</t>
   </si>
   <si>
-    <t>wilderness_l</t>
-  </si>
-  <si>
-    <t>Israel in the wilderness 1513 to 1473 BCE – 40 years</t>
-  </si>
-  <si>
-    <t>wilderness_r</t>
-  </si>
-  <si>
     <t>judges</t>
   </si>
   <si>
     <t>Time of the judges</t>
   </si>
   <si>
-    <t>judges_l</t>
-  </si>
-  <si>
-    <t>1473 to 1117 BCE – 356 years</t>
-  </si>
-  <si>
-    <t>judges_r</t>
-  </si>
-  <si>
-    <t>temple</t>
-  </si>
-  <si>
     <t>479 years until the temple construction – 1 Kings 6:1</t>
   </si>
   <si>
-    <t>temple_l</t>
-  </si>
-  <si>
-    <t>Nisan 1513 BCE to Ziv 1034 BCE</t>
-  </si>
-  <si>
-    <t>temple_r</t>
-  </si>
-  <si>
     <t>1034 BCE</t>
   </si>
   <si>
     <t>jesus_life</t>
   </si>
   <si>
-    <t>jesus_life_l</t>
-  </si>
-  <si>
-    <t>Jesus born 2 BCE</t>
-  </si>
-  <si>
-    <t>jesus_life_r</t>
-  </si>
-  <si>
-    <t>Executed Nisan 14th, 33 CE</t>
-  </si>
-  <si>
     <t>jesus_service</t>
   </si>
   <si>
-    <t>jesus_service_l</t>
-  </si>
-  <si>
-    <t>Jesus baptized autumn 29 CE</t>
-  </si>
-  <si>
-    <t>jesus_service_r</t>
-  </si>
-  <si>
-    <t>3.5 years of Jesus service</t>
-  </si>
-  <si>
     <t>69weeks</t>
   </si>
   <si>
     <t>69 weeks to the Messiah – Daniel 9:25</t>
   </si>
   <si>
-    <t>69weeks_l</t>
-  </si>
-  <si>
-    <t>rebuild Jerusalem 455 BCE</t>
-  </si>
-  <si>
-    <t>69weeks_r</t>
-  </si>
-  <si>
-    <t>Jesus baptized</t>
-  </si>
-  <si>
     <t>exile</t>
   </si>
   <si>
-    <t>exile_l</t>
-  </si>
-  <si>
-    <t>exile_r</t>
-  </si>
-  <si>
-    <t>607 to 537 BCE – 70 years (Jeremiah 25:11)</t>
-  </si>
-  <si>
     <t>7times</t>
   </si>
   <si>
-    <t>7 times – 2520 years to the Messianic Kingdom 1914 CE (Daniel 4:23)</t>
-  </si>
-  <si>
-    <t>7times_l</t>
-  </si>
-  <si>
-    <t>7times_r</t>
-  </si>
-  <si>
     <t>ww1</t>
   </si>
   <si>
-    <t>ww1_l</t>
-  </si>
-  <si>
-    <t>World War I – 1914–1918 CE</t>
-  </si>
-  <si>
-    <t>ww1_r</t>
-  </si>
-  <si>
     <t>ww2</t>
   </si>
   <si>
-    <t>ww2_l</t>
-  </si>
-  <si>
-    <t>World War II – 1939–1945 CE</t>
-  </si>
-  <si>
-    <t>ww2_r</t>
-  </si>
-  <si>
     <t>30_year_war</t>
   </si>
   <si>
-    <t>30_year_war_l</t>
-  </si>
-  <si>
-    <t>30 year war in Europe 1618-1648 CE</t>
-  </si>
-  <si>
-    <t>30_year_war_r</t>
-  </si>
-  <si>
     <t>joshua</t>
   </si>
   <si>
     <t>Joshua</t>
   </si>
   <si>
-    <t>joshua_l</t>
-  </si>
-  <si>
     <t>110 years</t>
   </si>
   <si>
-    <t>joshua_r</t>
-  </si>
-  <si>
     <t>caleb</t>
   </si>
   <si>
     <t>Caleb</t>
   </si>
   <si>
-    <t>caleb_l</t>
-  </si>
-  <si>
     <t>more than 85 years</t>
   </si>
   <si>
-    <t>caleb_r</t>
-  </si>
-  <si>
-    <t>exodus</t>
-  </si>
-  <si>
-    <t>Exodus from Egypt on Nisan 14th, 1513 BCE</t>
-  </si>
-  <si>
     <t>missionary1</t>
   </si>
   <si>
-    <t>missionary1_l</t>
-  </si>
-  <si>
-    <t>missionary1_r</t>
-  </si>
-  <si>
     <t>First Missionary Journey of Paul, c. 47-48 C.E. with Barnabas and John Mark</t>
   </si>
   <si>
     <t>missionary2</t>
   </si>
   <si>
-    <t>missionary2_l</t>
-  </si>
-  <si>
-    <t>missionary2_r</t>
-  </si>
-  <si>
     <t>Second Missionary Journey c. 49-52 C.E with Silas (Silvanus)</t>
   </si>
   <si>
     <t>missionary3</t>
   </si>
   <si>
-    <t>missionary3_l</t>
-  </si>
-  <si>
-    <t>missionary3_r</t>
-  </si>
-  <si>
-    <t>Third Missionary Journey c. 52-56 C.E. then arrested and imprisoned in Rome 58 C.E.</t>
-  </si>
-  <si>
     <t>circumcision</t>
   </si>
   <si>
-    <t>circumcision_l</t>
-  </si>
-  <si>
-    <t>circumcision_r</t>
-  </si>
-  <si>
     <t>Circumcision issue at Antioch, conference in Jerusalem c. 49 C.E.</t>
   </si>
   <si>
     <t>caesarea</t>
   </si>
   <si>
-    <t>caesarea_l</t>
-  </si>
-  <si>
-    <t>caesarea_r</t>
-  </si>
-  <si>
     <t>Paul in custody in Caesarea c. 56-58 C.E.</t>
   </si>
   <si>
     <t>rome1</t>
   </si>
   <si>
-    <t>rome1_l</t>
-  </si>
-  <si>
-    <t>rome1_r</t>
-  </si>
-  <si>
     <t>Paul’s first imprisonment in Rome c. 59-61 C.E.</t>
   </si>
   <si>
     <t>rome2</t>
   </si>
   <si>
-    <t>rome2_l</t>
-  </si>
-  <si>
-    <t>rome2_r</t>
-  </si>
-  <si>
-    <t>Paul’s second improsionment in Rome c. 65 CE, 2 Timothy written, Paul executed</t>
-  </si>
-  <si>
     <t>erster König des südlichen Zweistämmereiches</t>
   </si>
   <si>
@@ -726,6 +519,1023 @@
   </si>
   <si>
     <t>Deluge</t>
+  </si>
+  <si>
+    <t>pdf_title</t>
+  </si>
+  <si>
+    <t>pdf_subject</t>
+  </si>
+  <si>
+    <t>TCN</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>tháng</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>ngày</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>Tiên tri</t>
+  </si>
+  <si>
+    <t>Ê-nót</t>
+  </si>
+  <si>
+    <t>Kê-nan</t>
+  </si>
+  <si>
+    <t>Ma-ha-la-ên</t>
+  </si>
+  <si>
+    <t>Hê-nóc</t>
+  </si>
+  <si>
+    <t>Mê-tu-sê-la</t>
+  </si>
+  <si>
+    <t>Lê-méc</t>
+  </si>
+  <si>
+    <t>Nô-ê</t>
+  </si>
+  <si>
+    <t>A-bác-sát</t>
+  </si>
+  <si>
+    <t>Sê-lách</t>
+  </si>
+  <si>
+    <t>Ê-be</t>
+  </si>
+  <si>
+    <t>Bê-léc</t>
+  </si>
+  <si>
+    <t>Rê-hu</t>
+  </si>
+  <si>
+    <t>Sê-rúc</t>
+  </si>
+  <si>
+    <t>Na-cô</t>
+  </si>
+  <si>
+    <t>Tha-rê</t>
+  </si>
+  <si>
+    <t>Áp-ra-ham</t>
+  </si>
+  <si>
+    <t>Y-sác</t>
+  </si>
+  <si>
+    <t>Giô-sép</t>
+  </si>
+  <si>
+    <t>Môi-se</t>
+  </si>
+  <si>
+    <t>Othniel</t>
+  </si>
+  <si>
+    <t>Ehud</t>
+  </si>
+  <si>
+    <t>Ê-hút</t>
+  </si>
+  <si>
+    <t>Shamgar</t>
+  </si>
+  <si>
+    <t>Sam-ga</t>
+  </si>
+  <si>
+    <t>Barak</t>
+  </si>
+  <si>
+    <t>Ba-rác</t>
+  </si>
+  <si>
+    <t>Gideon</t>
+  </si>
+  <si>
+    <t>Tola</t>
+  </si>
+  <si>
+    <t>Thô-la</t>
+  </si>
+  <si>
+    <t>Jair</t>
+  </si>
+  <si>
+    <t>Jephthah</t>
+  </si>
+  <si>
+    <t>Giép-thê</t>
+  </si>
+  <si>
+    <t>Ibzan</t>
+  </si>
+  <si>
+    <t>Díp-xan</t>
+  </si>
+  <si>
+    <t>Elon</t>
+  </si>
+  <si>
+    <t>Ê-lôn</t>
+  </si>
+  <si>
+    <t>Abdon</t>
+  </si>
+  <si>
+    <t>Samson</t>
+  </si>
+  <si>
+    <t>Sam-sôn</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Sa-mu-ên</t>
+  </si>
+  <si>
+    <t>Sa-lô-môn</t>
+  </si>
+  <si>
+    <t>Rê-hô-bô-am</t>
+  </si>
+  <si>
+    <t>A-bi-gia (A-bi-giam)</t>
+  </si>
+  <si>
+    <t>A-sa</t>
+  </si>
+  <si>
+    <t>Giê-hô-sa-phát</t>
+  </si>
+  <si>
+    <t>Giê-hô-ram</t>
+  </si>
+  <si>
+    <t>A-cha-xia</t>
+  </si>
+  <si>
+    <t>Giê-hô-ách</t>
+  </si>
+  <si>
+    <t>A-ma-xia</t>
+  </si>
+  <si>
+    <t>U-xi-a (A-xa-ria)</t>
+  </si>
+  <si>
+    <t>Giô-tham</t>
+  </si>
+  <si>
+    <t>Ê-xê-chia</t>
+  </si>
+  <si>
+    <t>Ma-na-se</t>
+  </si>
+  <si>
+    <t>A-môn</t>
+  </si>
+  <si>
+    <t>Giô-si-a</t>
+  </si>
+  <si>
+    <t>Giê-hô-a-cha</t>
+  </si>
+  <si>
+    <t>Giê-hô-gia-kim</t>
+  </si>
+  <si>
+    <t>Giê-hô-gia-kin</t>
+  </si>
+  <si>
+    <t>Giê-rô-bô-am</t>
+  </si>
+  <si>
+    <t>Ba-ê-sa</t>
+  </si>
+  <si>
+    <t>Ê-lát</t>
+  </si>
+  <si>
+    <t>Xim-ri</t>
+  </si>
+  <si>
+    <t>Ôm-ri và Típ-ni</t>
+  </si>
+  <si>
+    <t>A-háp</t>
+  </si>
+  <si>
+    <t>Giê-hu</t>
+  </si>
+  <si>
+    <t>Giê-hô-a-cha và Giê-hô-ách</t>
+  </si>
+  <si>
+    <t>Giê-rô-bô-am II</t>
+  </si>
+  <si>
+    <t>Xa-cha-ri</t>
+  </si>
+  <si>
+    <t>Sa-lum</t>
+  </si>
+  <si>
+    <t>Mê-na-hem</t>
+  </si>
+  <si>
+    <t>Phê-ca-hia</t>
+  </si>
+  <si>
+    <t>Hô-sê</t>
+  </si>
+  <si>
+    <t>Elijah</t>
+  </si>
+  <si>
+    <t>Ê-li-gia</t>
+  </si>
+  <si>
+    <t>Elisha</t>
+  </si>
+  <si>
+    <t>Ê-li-sê</t>
+  </si>
+  <si>
+    <t>Jonah</t>
+  </si>
+  <si>
+    <t>Giô-na</t>
+  </si>
+  <si>
+    <t>Amos</t>
+  </si>
+  <si>
+    <t>Joel</t>
+  </si>
+  <si>
+    <t>Giô-ên</t>
+  </si>
+  <si>
+    <t>Hosea</t>
+  </si>
+  <si>
+    <t>Ô-sê</t>
+  </si>
+  <si>
+    <t>Isaiah</t>
+  </si>
+  <si>
+    <t>Ê-sai</t>
+  </si>
+  <si>
+    <t>Micah</t>
+  </si>
+  <si>
+    <t>Mi-chê</t>
+  </si>
+  <si>
+    <t>Zephaniah</t>
+  </si>
+  <si>
+    <t>Xô-phô-ni</t>
+  </si>
+  <si>
+    <t>Nahum</t>
+  </si>
+  <si>
+    <t>Na-hum</t>
+  </si>
+  <si>
+    <t>Jeremiah</t>
+  </si>
+  <si>
+    <t>Giê-rê-mi</t>
+  </si>
+  <si>
+    <t>Habakuk</t>
+  </si>
+  <si>
+    <t>Ha-ba-cúc</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Ezekiel</t>
+  </si>
+  <si>
+    <t>Ê-xê-chi-ên</t>
+  </si>
+  <si>
+    <t>Obadiah</t>
+  </si>
+  <si>
+    <t>Malachi</t>
+  </si>
+  <si>
+    <t>Ma-la-chi</t>
+  </si>
+  <si>
+    <t>Ruth</t>
+  </si>
+  <si>
+    <t>Ezra</t>
+  </si>
+  <si>
+    <t>Nehemiah</t>
+  </si>
+  <si>
+    <t>Nê-hê-mi</t>
+  </si>
+  <si>
+    <t>Esther</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>moses3</t>
+  </si>
+  <si>
+    <t>Israel in the wilderness 1513 to 1473 B.C.E. – 40 years</t>
+  </si>
+  <si>
+    <t>timespan_judges</t>
+  </si>
+  <si>
+    <t>timespan_judges2</t>
+  </si>
+  <si>
+    <t>temple1</t>
+  </si>
+  <si>
+    <t>Nisan 1513 B.C.E. to Ziv 1034 B.C.E.</t>
+  </si>
+  <si>
+    <t>temple2</t>
+  </si>
+  <si>
+    <t>479 years until the temple construction – 1 Các vua 6:1</t>
+  </si>
+  <si>
+    <t>Jesus baptized autumn 29 C.E.</t>
+  </si>
+  <si>
+    <t>69weeks2</t>
+  </si>
+  <si>
+    <t>3.5 years of Jesus service, executed Nisan 14th, 33 C.E.</t>
+  </si>
+  <si>
+    <t>Jesus born 2 B.C.E.</t>
+  </si>
+  <si>
+    <t>exile2</t>
+  </si>
+  <si>
+    <t>7times2</t>
+  </si>
+  <si>
+    <t>World War I – 1914–1918 C.E.</t>
+  </si>
+  <si>
+    <t>World War II – 1939–1945 C.E.</t>
+  </si>
+  <si>
+    <t>30 year war in Europe 1618-1648 C.E.</t>
+  </si>
+  <si>
+    <t>joshua2</t>
+  </si>
+  <si>
+    <t>Giô-suê</t>
+  </si>
+  <si>
+    <t>caleb2</t>
+  </si>
+  <si>
+    <t>Ca-lép</t>
+  </si>
+  <si>
+    <t>Third Missionary Journey c. 52-56 C.E.</t>
+  </si>
+  <si>
+    <t>Paul’s second imprisonment in Rome c. 65 CE, 2 Timothy written, Paul executed</t>
+  </si>
+  <si>
+    <t>Julius</t>
+  </si>
+  <si>
+    <t>Augustus</t>
+  </si>
+  <si>
+    <t>Tiberius</t>
+  </si>
+  <si>
+    <t>Caligula</t>
+  </si>
+  <si>
+    <t>Claudius</t>
+  </si>
+  <si>
+    <t>Nero</t>
+  </si>
+  <si>
+    <t>Galba-Otho-Vitellius</t>
+  </si>
+  <si>
+    <t>Galba, Otho và Vitellius (Year of the Four Emperors)</t>
+  </si>
+  <si>
+    <t>Vespasian</t>
+  </si>
+  <si>
+    <t>event_division_kingdom</t>
+  </si>
+  <si>
+    <t>Division of Israel 997 BCE</t>
+  </si>
+  <si>
+    <t>event_exodus</t>
+  </si>
+  <si>
+    <t>event_1914</t>
+  </si>
+  <si>
+    <t>event_destruction_jerusalem1</t>
+  </si>
+  <si>
+    <t>event_destruction_jerusalem2</t>
+  </si>
+  <si>
+    <t>Destruction of Jerusalem 70 C.E. by Rome under Titus</t>
+  </si>
+  <si>
+    <t>event_destruction_samaria</t>
+  </si>
+  <si>
+    <t>event_jerusalem_rebuilt</t>
+  </si>
+  <si>
+    <t>Jerusalem rebuilt 455 B.C.E.</t>
+  </si>
+  <si>
+    <t>6000 năm lịch sử loài người được hình dung</t>
+  </si>
+  <si>
+    <t>Dòng thời gian của loài người</t>
+  </si>
+  <si>
+    <t>năm</t>
+  </si>
+  <si>
+    <t>đến</t>
+  </si>
+  <si>
+    <t>Người</t>
+  </si>
+  <si>
+    <t>Thẩm phán</t>
+  </si>
+  <si>
+    <t>vị vua</t>
+  </si>
+  <si>
+    <t>Thời gian</t>
+  </si>
+  <si>
+    <t>Sự kiện</t>
+  </si>
+  <si>
+    <t>Lũ lụt</t>
+  </si>
+  <si>
+    <t>A-đam</t>
+  </si>
+  <si>
+    <t>Sết</t>
+  </si>
+  <si>
+    <t>Gia-rết</t>
+  </si>
+  <si>
+    <t>Gia-cốp</t>
+  </si>
+  <si>
+    <t>Ốt-ni-ên</t>
+  </si>
+  <si>
+    <t>Ghi-đê-ôn</t>
+  </si>
+  <si>
+    <t>Giai-rơ</t>
+  </si>
+  <si>
+    <t>Áp-đôn</t>
+  </si>
+  <si>
+    <t>Sau-lơ</t>
+  </si>
+  <si>
+    <t>Đa-vít</t>
+  </si>
+  <si>
+    <t>Nữ hoàng A-tha-li</t>
+  </si>
+  <si>
+    <t>Xê-đê-kia</t>
+  </si>
+  <si>
+    <t>Na-đáp</t>
+  </si>
+  <si>
+    <t>Ôm-ri (một mình)</t>
+  </si>
+  <si>
+    <t>Giê-hô-ách (một mình)</t>
+  </si>
+  <si>
+    <t>A-mốt</t>
+  </si>
+  <si>
+    <t>Đa-ni-ên</t>
+  </si>
+  <si>
+    <t>Áp-đia</t>
+  </si>
+  <si>
+    <t>Ru-tơ</t>
+  </si>
+  <si>
+    <t>Ê-xơ-ra</t>
+  </si>
+  <si>
+    <t>Ê-xơ-tê</t>
+  </si>
+  <si>
+    <t>Giốp</t>
+  </si>
+  <si>
+    <t>1593 to 1473 TCN – 120 năm</t>
+  </si>
+  <si>
+    <t>1473 to 1117 TCN – 356 năm</t>
+  </si>
+  <si>
+    <t>69 weeks to the Messiah – Đa-ni-ên 9:25</t>
+  </si>
+  <si>
+    <t>607 to 537 B.C.E. – 70 năm (Giê-rê-mi 25:11)</t>
+  </si>
+  <si>
+    <t>lưu vong</t>
+  </si>
+  <si>
+    <t>Khải huyền 12:9</t>
+  </si>
+  <si>
+    <t>7 times – 2520 years to the Messianic Kingdom 1914 C.E. (Đa-ni-ên 4:23)</t>
+  </si>
+  <si>
+    <t>110 năm</t>
+  </si>
+  <si>
+    <t>hơn 85 năm</t>
+  </si>
+  <si>
+    <t>Xuất Ai Cập from Egypt on Nisan 14th, 1513 B.C.E.</t>
+  </si>
+  <si>
+    <t>End of the time of the nations, Gods kingdom starts to rule in heaven 1914 C.E.</t>
+  </si>
+  <si>
+    <t>Destruction of Jerusalem 607 B.C.E. by Babylon</t>
+  </si>
+  <si>
+    <t>Destruction of Samaria 740 B.C.E. by Assyria</t>
+  </si>
+  <si>
+    <t>6000 Jahre Menschheitsgeschichte visualisiert</t>
+  </si>
+  <si>
+    <t>Zeitleiste der Menschheit</t>
+  </si>
+  <si>
+    <t>Jahre</t>
+  </si>
+  <si>
+    <t>Monat</t>
+  </si>
+  <si>
+    <t>Monate</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Tage</t>
+  </si>
+  <si>
+    <t>bis</t>
+  </si>
+  <si>
+    <t>Personen</t>
+  </si>
+  <si>
+    <t>Richter</t>
+  </si>
+  <si>
+    <t>Propheten</t>
+  </si>
+  <si>
+    <t>Könige</t>
+  </si>
+  <si>
+    <t>Zeitabschnitte</t>
+  </si>
+  <si>
+    <t>Ereignisse</t>
+  </si>
+  <si>
+    <t>Sintflut</t>
+  </si>
+  <si>
+    <t>Simson</t>
+  </si>
+  <si>
+    <t>Josaphat</t>
+  </si>
+  <si>
+    <t>Joram</t>
+  </si>
+  <si>
+    <t>Ahasja</t>
+  </si>
+  <si>
+    <t>Königin Athalija</t>
+  </si>
+  <si>
+    <t>Joas</t>
+  </si>
+  <si>
+    <t>Amazja</t>
+  </si>
+  <si>
+    <t>Usija (Asarja)</t>
+  </si>
+  <si>
+    <t>Ahas</t>
+  </si>
+  <si>
+    <t>Hiskia</t>
+  </si>
+  <si>
+    <t>Manasse</t>
+  </si>
+  <si>
+    <t>Josia</t>
+  </si>
+  <si>
+    <t>Jehoahas</t>
+  </si>
+  <si>
+    <t>Jojakim</t>
+  </si>
+  <si>
+    <t>Jojachin</t>
+  </si>
+  <si>
+    <t>Jehoahas und Joas</t>
+  </si>
+  <si>
+    <t>Joas (allein)</t>
+  </si>
+  <si>
+    <t>Jerobeam II</t>
+  </si>
+  <si>
+    <t>Sacharja</t>
+  </si>
+  <si>
+    <t>Pekachja</t>
+  </si>
+  <si>
+    <t>Hoschea</t>
+  </si>
+  <si>
+    <t>Elia</t>
+  </si>
+  <si>
+    <t>Elisa</t>
+  </si>
+  <si>
+    <t>Jona</t>
+  </si>
+  <si>
+    <t>Jesaja</t>
+  </si>
+  <si>
+    <t>Micha</t>
+  </si>
+  <si>
+    <t>Jeremia</t>
+  </si>
+  <si>
+    <t>Obadja</t>
+  </si>
+  <si>
+    <t>Maleachi</t>
+  </si>
+  <si>
+    <t>Esra</t>
+  </si>
+  <si>
+    <t>Nehemia</t>
+  </si>
+  <si>
+    <t>Hiob</t>
+  </si>
+  <si>
+    <t>1593 bis 1473 v.u.Z. – 120 Jahre</t>
+  </si>
+  <si>
+    <t>Israel in der Wildnis von 1513 bis 1473 v.u.Z. – 40 Jahre</t>
+  </si>
+  <si>
+    <t>1473 bis 1117 v.u.Z. – 356 Jahre</t>
+  </si>
+  <si>
+    <t>Zeit der Richter</t>
+  </si>
+  <si>
+    <t>Nisan 1513 v.u.Z bis Ziv 1034 v.u.Z.</t>
+  </si>
+  <si>
+    <t>479 Jahre bis Beginn des Tempelbaus – 1. Könige 6:1</t>
+  </si>
+  <si>
+    <t>Jesus getauft im Herbst 29 u.Z</t>
+  </si>
+  <si>
+    <t>69 Wochen bis zum Messias – Daniel 9:25</t>
+  </si>
+  <si>
+    <t>3,5 Jahre Dienstzeit Jesu, getötet am 14. Nisan 33 u.Z.</t>
+  </si>
+  <si>
+    <t>Jesus wurde im Jahr 2 v.u.Z. geboren</t>
+  </si>
+  <si>
+    <t>607 bis 537 v.u.Z. – 70 Jahre (Jeremia 25:11)</t>
+  </si>
+  <si>
+    <t>Exil</t>
+  </si>
+  <si>
+    <t>Offenbarung 12:9</t>
+  </si>
+  <si>
+    <t>7 Zeiten – 2520 Jahre bis zum Messianischen Königreich 1914 u.Z. (Daniel 4:23)</t>
+  </si>
+  <si>
+    <t>1. Weltkrieg – 1914–1918 u.Z.</t>
+  </si>
+  <si>
+    <t>2. Weltkrieg – 1939–1945 u.Z.</t>
+  </si>
+  <si>
+    <t>Dreißigjähriger Krieg in Europa 1618-1648 u.Z.</t>
+  </si>
+  <si>
+    <t>110 Jahre</t>
+  </si>
+  <si>
+    <t>Josua</t>
+  </si>
+  <si>
+    <t>mehr als 85 Jahre</t>
+  </si>
+  <si>
+    <t>Kaleb</t>
+  </si>
+  <si>
+    <t>Erste Missionsreise von Paulus, ca. 47-48 u.Z., mit Barnabas und Johannes (Markus)</t>
+  </si>
+  <si>
+    <t>Streitfrage der Beschneidung in Antiochia, Zusammenkunft in Jerusalem ca. 49 u.Z.</t>
+  </si>
+  <si>
+    <t>Zweite Missionsreise ca. 49-52 u.Z. mit Silas (Silvanus)</t>
+  </si>
+  <si>
+    <t>Dritte Missionsreise ca. 52-56 u.Z.</t>
+  </si>
+  <si>
+    <t>Paulus in Gefangenschaft in Cäserea ca. 56-58 u.Z.</t>
+  </si>
+  <si>
+    <t>Erste Gefangenschaft von Paulus in Rom ca. 59-61 u.Z.</t>
+  </si>
+  <si>
+    <t>Zweite Gefangenschaft in Rom ca. 65 u.Z., 2. Timotheus geschrieben, Paulus hingerichtet</t>
+  </si>
+  <si>
+    <t>Galba, Otho und Vitellius (Vierkaiserjahr)</t>
+  </si>
+  <si>
+    <t>Teilung Israels 997 v.u.Z.</t>
+  </si>
+  <si>
+    <t>Auszug aus Ägypten am 14. Nisan 1513 v.u.Z.</t>
+  </si>
+  <si>
+    <t>Zerstörung von Jerusalem 607 v.u.Z. durch Babylon</t>
+  </si>
+  <si>
+    <t>Zerstörung von Jerusalem 70 u.Z. durch Rom unter Titus</t>
+  </si>
+  <si>
+    <t>Zerstörung von Samaria 740 v.u.Z. durch Assyrien</t>
+  </si>
+  <si>
+    <t>Jerusalem wiederaufgebaut 455 v.u.Z.</t>
+  </si>
+  <si>
+    <t>Ẹnosch</t>
+  </si>
+  <si>
+    <t>Kẹnan</t>
+  </si>
+  <si>
+    <t>Mahalạlel</t>
+  </si>
+  <si>
+    <t>Jạred</t>
+  </si>
+  <si>
+    <t>Hẹnoch</t>
+  </si>
+  <si>
+    <t>Methụsalah</t>
+  </si>
+  <si>
+    <t>Lạmech</t>
+  </si>
+  <si>
+    <t>Ạrpachschad</t>
+  </si>
+  <si>
+    <t>Schẹlach</t>
+  </si>
+  <si>
+    <t>Ẹber</t>
+  </si>
+  <si>
+    <t>Pẹleg</t>
+  </si>
+  <si>
+    <t>Rẹu</t>
+  </si>
+  <si>
+    <t>Sẹrug</t>
+  </si>
+  <si>
+    <t>Nạhor</t>
+  </si>
+  <si>
+    <t>Tẹrach</t>
+  </si>
+  <si>
+    <t>Ọthniël</t>
+  </si>
+  <si>
+    <t>Ẹhud</t>
+  </si>
+  <si>
+    <t>Schạmgar</t>
+  </si>
+  <si>
+    <t>Bạrak</t>
+  </si>
+  <si>
+    <t>Gịdeon</t>
+  </si>
+  <si>
+    <t>Tọla</t>
+  </si>
+  <si>
+    <t>Jạir</t>
+  </si>
+  <si>
+    <t>Jẹphtha</t>
+  </si>
+  <si>
+    <t>Ịbzan</t>
+  </si>
+  <si>
+    <t>Ẹlon</t>
+  </si>
+  <si>
+    <t>Ạbdon</t>
+  </si>
+  <si>
+    <t>Sạlomo</t>
+  </si>
+  <si>
+    <t>Rehạbeam</t>
+  </si>
+  <si>
+    <t>Abija (Abịjam)</t>
+  </si>
+  <si>
+    <t>Ạsa</t>
+  </si>
+  <si>
+    <t>Jerọbeam</t>
+  </si>
+  <si>
+    <t>Nạdab</t>
+  </si>
+  <si>
+    <t>Bạscha</t>
+  </si>
+  <si>
+    <t>Ẹla</t>
+  </si>
+  <si>
+    <t>Sịmri</t>
+  </si>
+  <si>
+    <t>Ọmri und Tibni zusammen</t>
+  </si>
+  <si>
+    <t>Ọmri (allein)</t>
+  </si>
+  <si>
+    <t>Ạhab</t>
+  </si>
+  <si>
+    <t>Jọel</t>
+  </si>
+  <si>
+    <t>Zephạnja</t>
+  </si>
+  <si>
+    <t>Hesẹkiel</t>
+  </si>
+  <si>
+    <t>Ende der “Zeiten der Nationen”, Gottes Königkreich beginn im Himmel zu regieren 1914 u.Z.</t>
+  </si>
+  <si>
+    <t>1593 to 1473 B.C.E. – 120 years</t>
+  </si>
+  <si>
+    <t>1473 to 1117 B.C.E. – 356 years</t>
+  </si>
+  <si>
+    <t>607 to 537 B.C.E. – 70 years (Jeremiah 25:11)</t>
+  </si>
+  <si>
+    <t>Revelation 12:9</t>
+  </si>
+  <si>
+    <t>7 times – 2520 years to the Messianic Kingdom 1914 C.E. (Daniel 4:23)</t>
+  </si>
+  <si>
+    <t>Galba, Otho and Vitellius (Year of the Four Emperors)</t>
+  </si>
+  <si>
+    <t>Exodus from Egypt on Nisan 14th, 1513 B.C.E.</t>
+  </si>
+  <si>
+    <t>6000 years human history visualized</t>
+  </si>
+  <si>
+    <t>Timeline of humankind</t>
   </si>
 </sst>
 </file>
@@ -956,10 +1766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:C165"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,26 +1784,26 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1001,7 +1811,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1009,1135 +1819,1183 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>226</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>226</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>227</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
-        <v>227</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>228</v>
+        <v>170</v>
       </c>
       <c r="B9" t="s">
-        <v>228</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>229</v>
+        <v>171</v>
       </c>
       <c r="B10" t="s">
-        <v>229</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>194</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" t="s">
-        <v>73</v>
+        <v>194</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>195</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>75</v>
+        <v>197</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>197</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" t="s">
-        <v>78</v>
+        <v>199</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>201</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>202</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>204</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>204</v>
+      </c>
+      <c r="C50">
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>205</v>
+      </c>
+      <c r="C51">
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>207</v>
+      </c>
+      <c r="C52">
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>209</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>209</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>85</v>
+        <v>211</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
-      </c>
-      <c r="C54" t="s">
-        <v>86</v>
+        <v>211</v>
+      </c>
+      <c r="C54">
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>212</v>
       </c>
       <c r="B55" t="s">
-        <v>87</v>
+        <v>212</v>
+      </c>
+      <c r="C55">
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>88</v>
+        <v>214</v>
       </c>
       <c r="B56" t="s">
-        <v>88</v>
-      </c>
-      <c r="C56" t="s">
-        <v>89</v>
+        <v>214</v>
+      </c>
+      <c r="C56">
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>118</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="B58" t="s">
-        <v>91</v>
-      </c>
-      <c r="C58" t="s">
-        <v>92</v>
+        <v>119</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B59" t="s">
-        <v>93</v>
-      </c>
-      <c r="C59" t="s">
-        <v>94</v>
+        <v>120</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>95</v>
+        <v>55</v>
+      </c>
+      <c r="C60" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>96</v>
+        <v>58</v>
+      </c>
+      <c r="C61" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>97</v>
-      </c>
-      <c r="C62" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>103</v>
-      </c>
-      <c r="C64" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="C66" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>107</v>
+        <v>71</v>
+      </c>
+      <c r="C69" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>109</v>
-      </c>
-      <c r="C70" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>112</v>
-      </c>
-      <c r="C71" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>115</v>
-      </c>
-      <c r="C73" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>117</v>
-      </c>
-      <c r="C74" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>120</v>
+        <v>79</v>
+      </c>
+      <c r="C76" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="B79" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="B80" t="s">
-        <v>125</v>
+        <v>85</v>
+      </c>
+      <c r="C80" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>126</v>
+        <v>87</v>
+      </c>
+      <c r="C81" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="B84" t="s">
-        <v>131</v>
+        <v>91</v>
+      </c>
+      <c r="C84" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>131</v>
+        <v>94</v>
+      </c>
+      <c r="C85" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="B86" t="s">
-        <v>134</v>
+        <v>97</v>
+      </c>
+      <c r="C86" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="B87" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="B88" t="s">
-        <v>137</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="B89" t="s">
-        <v>139</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="B90" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="B91" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="B92" t="s">
-        <v>144</v>
+        <v>103</v>
+      </c>
+      <c r="C92" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="B93" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="C93" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="B94" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="B95" t="s">
-        <v>149</v>
+        <v>109</v>
+      </c>
+      <c r="C95" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="B96" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="C96" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="B97" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="B98" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="B99" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="B100" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="C100" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>159</v>
+        <v>248</v>
       </c>
       <c r="B101" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>161</v>
+        <v>250</v>
       </c>
       <c r="B102" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>163</v>
+        <v>252</v>
       </c>
       <c r="B103" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="B104" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>165</v>
+        <v>255</v>
       </c>
       <c r="B105" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>167</v>
+        <v>257</v>
       </c>
       <c r="B106" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="B107" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>170</v>
+        <v>261</v>
       </c>
       <c r="B108" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>171</v>
+        <v>263</v>
       </c>
       <c r="B109" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="B110" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>174</v>
+        <v>267</v>
       </c>
       <c r="B111" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>175</v>
+        <v>269</v>
       </c>
       <c r="B112" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>176</v>
+        <v>271</v>
       </c>
       <c r="B113" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>178</v>
+        <v>272</v>
       </c>
       <c r="B114" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="B115" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="B116" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>182</v>
+        <v>277</v>
       </c>
       <c r="B117" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>183</v>
+        <v>278</v>
       </c>
       <c r="B118" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="B119" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="B120" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>188</v>
+        <v>282</v>
       </c>
       <c r="B121" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>190</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>192</v>
+        <v>283</v>
       </c>
       <c r="B123" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>195</v>
+        <v>285</v>
       </c>
       <c r="B125" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>196</v>
+        <v>286</v>
       </c>
       <c r="B126" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>197</v>
+        <v>287</v>
       </c>
       <c r="B127" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>199</v>
+        <v>289</v>
       </c>
       <c r="B128" t="s">
-        <v>131</v>
+        <v>125</v>
+      </c>
+      <c r="C128" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>131</v>
+        <v>291</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>201</v>
+        <v>292</v>
       </c>
       <c r="B130" t="s">
-        <v>202</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>203</v>
+        <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>131</v>
+        <v>293</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="B132" t="s">
-        <v>131</v>
+        <v>294</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>205</v>
+        <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>206</v>
+        <v>496</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>207</v>
+        <v>295</v>
       </c>
       <c r="B134" t="s">
         <v>131</v>
@@ -2145,90 +3003,250 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>131</v>
+        <v>497</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>209</v>
+        <v>296</v>
       </c>
       <c r="B136" t="s">
-        <v>210</v>
+        <v>498</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="B137" t="s">
-        <v>131</v>
+        <v>297</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>212</v>
+        <v>134</v>
       </c>
       <c r="B138" t="s">
-        <v>131</v>
+        <v>298</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>213</v>
+        <v>135</v>
       </c>
       <c r="B139" t="s">
-        <v>214</v>
+        <v>299</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>215</v>
+        <v>136</v>
       </c>
       <c r="B140" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>216</v>
+        <v>300</v>
       </c>
       <c r="B141" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c r="B142" t="s">
-        <v>218</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>219</v>
+        <v>302</v>
       </c>
       <c r="B143" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>220</v>
+        <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>221</v>
+        <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>222</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>151</v>
+      </c>
+      <c r="B149" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>306</v>
+      </c>
+      <c r="B151" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>307</v>
+      </c>
+      <c r="B152" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>308</v>
+      </c>
+      <c r="B153" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>309</v>
+      </c>
+      <c r="B154" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>310</v>
+      </c>
+      <c r="B155" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>311</v>
+      </c>
+      <c r="B156" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>312</v>
+      </c>
+      <c r="B157" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>314</v>
+      </c>
+      <c r="B158" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>315</v>
+      </c>
+      <c r="B159" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>317</v>
+      </c>
+      <c r="B160" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>318</v>
+      </c>
+      <c r="B161" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>319</v>
+      </c>
+      <c r="B162" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>320</v>
+      </c>
+      <c r="B163" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>322</v>
+      </c>
+      <c r="B164" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>323</v>
+      </c>
+      <c r="B165" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -2239,16 +3257,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6490B5-0C6D-437A-8433-B9F550804033}">
-  <dimension ref="A1:C136"/>
+  <dimension ref="A1:C165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2257,1144 +3275,1424 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B31" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>24</v>
       </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>67</v>
-      </c>
       <c r="B32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" t="s">
-        <v>68</v>
+        <v>460</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>461</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>462</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" t="s">
-        <v>73</v>
+        <v>463</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>464</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>465</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" t="s">
-        <v>78</v>
+        <v>466</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>194</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>467</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>195</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" t="s">
-        <v>86</v>
+        <v>468</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>197</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>469</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>199</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" t="s">
-        <v>89</v>
+        <v>470</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>201</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>471</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" t="s">
-        <v>92</v>
+        <v>472</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>204</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" t="s">
-        <v>94</v>
+        <v>473</v>
+      </c>
+      <c r="C50">
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>205</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>474</v>
+      </c>
+      <c r="C51">
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>207</v>
       </c>
       <c r="B52" t="s">
-        <v>96</v>
+        <v>475</v>
+      </c>
+      <c r="C52">
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>97</v>
+        <v>209</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
-      </c>
-      <c r="C53" t="s">
-        <v>98</v>
+        <v>476</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>211</v>
       </c>
       <c r="B54" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54" t="s">
-        <v>101</v>
+        <v>477</v>
+      </c>
+      <c r="C54">
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>102</v>
+        <v>212</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
-      </c>
-      <c r="C55" t="s">
-        <v>104</v>
+        <v>385</v>
+      </c>
+      <c r="C55">
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>214</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>214</v>
+      </c>
+      <c r="C56">
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>118</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>119</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>478</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>107</v>
+        <v>479</v>
+      </c>
+      <c r="C60" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>480</v>
       </c>
       <c r="C61" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>112</v>
-      </c>
-      <c r="C62" t="s">
-        <v>112</v>
+        <v>481</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>386</v>
+      </c>
+      <c r="C63" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>115</v>
-      </c>
-      <c r="C64" t="s">
-        <v>116</v>
+        <v>387</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" t="s">
-        <v>118</v>
+        <v>388</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>119</v>
+        <v>389</v>
+      </c>
+      <c r="C66" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>120</v>
+        <v>390</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>121</v>
+        <v>391</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>122</v>
+        <v>392</v>
       </c>
       <c r="C69" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>125</v>
+        <v>393</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>126</v>
+        <v>394</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>42</v>
+        <v>395</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>131</v>
+        <v>396</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>131</v>
+        <v>397</v>
+      </c>
+      <c r="C76" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>134</v>
+        <v>398</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>131</v>
+        <v>399</v>
+      </c>
+      <c r="C78" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="B79" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="B80" t="s">
-        <v>139</v>
+        <v>482</v>
+      </c>
+      <c r="C80" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>131</v>
+        <v>483</v>
+      </c>
+      <c r="C81" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>142</v>
+        <v>484</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>144</v>
+        <v>485</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="B84" t="s">
-        <v>131</v>
+        <v>486</v>
       </c>
       <c r="C84" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>131</v>
+        <v>487</v>
+      </c>
+      <c r="C85" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="B86" t="s">
-        <v>149</v>
+        <v>488</v>
+      </c>
+      <c r="C86" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="B87" t="s">
-        <v>151</v>
+        <v>489</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="B88" t="s">
-        <v>131</v>
+        <v>388</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="B89" t="s">
-        <v>154</v>
+        <v>387</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="B90" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="B91" t="s">
-        <v>158</v>
+        <v>397</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="B92" t="s">
-        <v>160</v>
+        <v>400</v>
+      </c>
+      <c r="C92" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="B93" t="s">
-        <v>162</v>
+        <v>401</v>
+      </c>
+      <c r="C93" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="B94" t="s">
-        <v>163</v>
+        <v>402</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="B95" t="s">
-        <v>131</v>
+        <v>403</v>
+      </c>
+      <c r="C95" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="B96" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="C96" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="B97" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="B98" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="B99" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
       <c r="B100" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+      <c r="C100" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>172</v>
+        <v>248</v>
       </c>
       <c r="B101" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>174</v>
+        <v>250</v>
       </c>
       <c r="B102" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="B103" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>176</v>
+        <v>254</v>
       </c>
       <c r="B104" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>178</v>
+        <v>255</v>
       </c>
       <c r="B105" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>179</v>
+        <v>257</v>
       </c>
       <c r="B106" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="B107" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="B108" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>183</v>
+        <v>263</v>
       </c>
       <c r="B109" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c r="B110" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="B111" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>188</v>
+        <v>269</v>
       </c>
       <c r="B112" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>190</v>
+        <v>271</v>
       </c>
       <c r="B113" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>192</v>
+        <v>272</v>
       </c>
       <c r="B114" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>193</v>
+        <v>274</v>
       </c>
       <c r="B115" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>195</v>
+        <v>275</v>
       </c>
       <c r="B116" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>196</v>
+        <v>277</v>
       </c>
       <c r="B117" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>197</v>
+        <v>278</v>
       </c>
       <c r="B118" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>199</v>
+        <v>279</v>
       </c>
       <c r="B119" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>200</v>
+        <v>281</v>
       </c>
       <c r="B120" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>201</v>
+        <v>282</v>
       </c>
       <c r="B121" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>203</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>204</v>
+        <v>283</v>
       </c>
       <c r="B123" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="B125" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>208</v>
+        <v>286</v>
       </c>
       <c r="B126" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>209</v>
+        <v>287</v>
       </c>
       <c r="B127" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>211</v>
+        <v>289</v>
       </c>
       <c r="B128" t="s">
-        <v>131</v>
+        <v>422</v>
+      </c>
+      <c r="C128" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>212</v>
+        <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>131</v>
+        <v>423</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>213</v>
+        <v>292</v>
       </c>
       <c r="B130" t="s">
-        <v>214</v>
+        <v>424</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>215</v>
+        <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>131</v>
+        <v>425</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>216</v>
+        <v>127</v>
       </c>
       <c r="B132" t="s">
-        <v>131</v>
+        <v>426</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>217</v>
+        <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>218</v>
+        <v>427</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>219</v>
+        <v>295</v>
       </c>
       <c r="B134" t="s">
-        <v>131</v>
+        <v>428</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>220</v>
+        <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>131</v>
+        <v>429</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>221</v>
+        <v>296</v>
       </c>
       <c r="B136" t="s">
-        <v>222</v>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>133</v>
+      </c>
+      <c r="B137" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>134</v>
+      </c>
+      <c r="B138" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>135</v>
+      </c>
+      <c r="B139" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>136</v>
+      </c>
+      <c r="B140" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>300</v>
+      </c>
+      <c r="B141" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>139</v>
+      </c>
+      <c r="B142" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>302</v>
+      </c>
+      <c r="B143" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>147</v>
+      </c>
+      <c r="B145" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>151</v>
+      </c>
+      <c r="B149" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>306</v>
+      </c>
+      <c r="B151" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>307</v>
+      </c>
+      <c r="B152" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>308</v>
+      </c>
+      <c r="B153" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>309</v>
+      </c>
+      <c r="B154" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>310</v>
+      </c>
+      <c r="B155" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>311</v>
+      </c>
+      <c r="B156" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>312</v>
+      </c>
+      <c r="B157" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>314</v>
+      </c>
+      <c r="B158" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>315</v>
+      </c>
+      <c r="B159" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>317</v>
+      </c>
+      <c r="B160" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>318</v>
+      </c>
+      <c r="B161" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>319</v>
+      </c>
+      <c r="B162" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>320</v>
+      </c>
+      <c r="B163" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>322</v>
+      </c>
+      <c r="B164" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>323</v>
+      </c>
+      <c r="B165" t="s">
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -3405,1179 +4703,1446 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD92866-9610-471E-81FF-54D633F34B16}">
-  <dimension ref="A1:B145"/>
+  <dimension ref="A1:C165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>226</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>227</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>228</v>
+        <v>170</v>
       </c>
       <c r="B9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>229</v>
+        <v>171</v>
       </c>
       <c r="B10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B38" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B39" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B40" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B41" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B42" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B37" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B43" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>194</v>
+      </c>
+      <c r="B44" t="s">
+        <v>339</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>195</v>
+      </c>
+      <c r="B45" t="s">
+        <v>196</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>197</v>
+      </c>
+      <c r="B46" t="s">
+        <v>198</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>199</v>
+      </c>
+      <c r="B47" t="s">
+        <v>200</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>201</v>
+      </c>
+      <c r="B48" t="s">
+        <v>340</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>202</v>
+      </c>
+      <c r="B49" t="s">
+        <v>203</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>204</v>
+      </c>
+      <c r="B50" t="s">
+        <v>341</v>
+      </c>
+      <c r="C50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>205</v>
+      </c>
+      <c r="B51" t="s">
+        <v>206</v>
+      </c>
+      <c r="C51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>207</v>
+      </c>
+      <c r="B52" t="s">
+        <v>208</v>
+      </c>
+      <c r="C52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>209</v>
+      </c>
+      <c r="B53" t="s">
+        <v>210</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>211</v>
+      </c>
+      <c r="B54" t="s">
+        <v>342</v>
+      </c>
+      <c r="C54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>212</v>
+      </c>
+      <c r="B55" t="s">
+        <v>213</v>
+      </c>
+      <c r="C55">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>214</v>
+      </c>
+      <c r="B56" t="s">
+        <v>215</v>
+      </c>
+      <c r="C56">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" t="s">
+        <v>343</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" t="s">
+        <v>344</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" t="s">
+        <v>216</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" t="s">
+        <v>217</v>
+      </c>
+      <c r="C60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" t="s">
+        <v>218</v>
+      </c>
+      <c r="C61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>61</v>
       </c>
-      <c r="B38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B63" t="s">
+        <v>220</v>
+      </c>
+      <c r="C63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>63</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>345</v>
+      </c>
+      <c r="C66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>225</v>
+      </c>
+      <c r="C69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>231</v>
+      </c>
+      <c r="C76" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" t="s">
+        <v>233</v>
+      </c>
+      <c r="C78" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" t="s">
+        <v>234</v>
+      </c>
+      <c r="C80" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" t="s">
+        <v>347</v>
+      </c>
+      <c r="C81" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" t="s">
+        <v>237</v>
+      </c>
+      <c r="C84" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>93</v>
+      </c>
+      <c r="B85" t="s">
+        <v>238</v>
+      </c>
+      <c r="C85" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>96</v>
+      </c>
+      <c r="B86" t="s">
+        <v>348</v>
+      </c>
+      <c r="C86" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>99</v>
+      </c>
+      <c r="B87" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>65</v>
+      </c>
+      <c r="B88" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>72</v>
-      </c>
-      <c r="B44" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>75</v>
-      </c>
-      <c r="B46" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>79</v>
-      </c>
-      <c r="B48" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>80</v>
-      </c>
-      <c r="B49" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>81</v>
-      </c>
-      <c r="B50" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>82</v>
-      </c>
-      <c r="B51" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>84</v>
-      </c>
-      <c r="B53" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>85</v>
-      </c>
-      <c r="B54" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>87</v>
-      </c>
-      <c r="B55" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>88</v>
-      </c>
-      <c r="B56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>90</v>
-      </c>
-      <c r="B57" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>91</v>
-      </c>
-      <c r="B58" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>93</v>
-      </c>
-      <c r="B59" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>95</v>
-      </c>
-      <c r="B60" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>96</v>
-      </c>
-      <c r="B61" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>97</v>
-      </c>
-      <c r="B62" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>99</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="B89" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="B90" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>101</v>
+      </c>
+      <c r="B91" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>102</v>
       </c>
-      <c r="B64" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="B92" t="s">
+        <v>241</v>
+      </c>
+      <c r="C92" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>105</v>
       </c>
-      <c r="B65" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="B93" t="s">
+        <v>349</v>
+      </c>
+      <c r="C93" t="s">
         <v>106</v>
       </c>
-      <c r="B68" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>107</v>
       </c>
-      <c r="B69" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>108</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="B94" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="B95" t="s">
+        <v>243</v>
+      </c>
+      <c r="C95" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>111</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B96" t="s">
+        <v>244</v>
+      </c>
+      <c r="C96" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>113</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B97" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="B98" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>115</v>
       </c>
-      <c r="B73" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="B99" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>116</v>
+      </c>
+      <c r="B100" t="s">
+        <v>247</v>
+      </c>
+      <c r="C100" t="s">
         <v>117</v>
       </c>
-      <c r="B74" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>119</v>
-      </c>
-      <c r="B75" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>120</v>
-      </c>
-      <c r="B76" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>248</v>
+      </c>
+      <c r="B101" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>250</v>
+      </c>
+      <c r="B102" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>252</v>
+      </c>
+      <c r="B103" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>254</v>
+      </c>
+      <c r="B104" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>255</v>
+      </c>
+      <c r="B105" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>257</v>
+      </c>
+      <c r="B106" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>259</v>
+      </c>
+      <c r="B107" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>261</v>
+      </c>
+      <c r="B108" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>263</v>
+      </c>
+      <c r="B109" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>265</v>
+      </c>
+      <c r="B110" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>267</v>
+      </c>
+      <c r="B111" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>269</v>
+      </c>
+      <c r="B112" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>271</v>
+      </c>
+      <c r="B113" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>272</v>
+      </c>
+      <c r="B114" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>274</v>
+      </c>
+      <c r="B115" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>275</v>
+      </c>
+      <c r="B116" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>277</v>
+      </c>
+      <c r="B117" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>278</v>
+      </c>
+      <c r="B118" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>279</v>
+      </c>
+      <c r="B119" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>281</v>
+      </c>
+      <c r="B120" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>282</v>
+      </c>
+      <c r="B121" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>121</v>
       </c>
-      <c r="B77" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="B122" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>283</v>
+      </c>
+      <c r="B123" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>122</v>
       </c>
-      <c r="B78" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="B124" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>285</v>
+      </c>
+      <c r="B125" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>286</v>
+      </c>
+      <c r="B126" t="s">
         <v>124</v>
       </c>
-      <c r="B79" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>125</v>
-      </c>
-      <c r="B80" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>287</v>
+      </c>
+      <c r="B127" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>289</v>
+      </c>
+      <c r="B128" t="s">
+        <v>290</v>
+      </c>
+      <c r="C128" t="s">
         <v>126</v>
-      </c>
-      <c r="B81" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>127</v>
-      </c>
-      <c r="B82" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>128</v>
-      </c>
-      <c r="B83" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>130</v>
-      </c>
-      <c r="B84" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>132</v>
-      </c>
-      <c r="B85" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>133</v>
-      </c>
-      <c r="B86" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>135</v>
-      </c>
-      <c r="B87" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>136</v>
-      </c>
-      <c r="B88" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>138</v>
-      </c>
-      <c r="B89" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>140</v>
-      </c>
-      <c r="B90" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>141</v>
-      </c>
-      <c r="B91" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>143</v>
-      </c>
-      <c r="B92" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>145</v>
-      </c>
-      <c r="B93" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>147</v>
-      </c>
-      <c r="B94" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>148</v>
-      </c>
-      <c r="B95" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>150</v>
-      </c>
-      <c r="B96" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>152</v>
-      </c>
-      <c r="B97" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>153</v>
-      </c>
-      <c r="B98" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>155</v>
-      </c>
-      <c r="B99" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>157</v>
-      </c>
-      <c r="B100" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>159</v>
-      </c>
-      <c r="B101" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>161</v>
-      </c>
-      <c r="B102" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>163</v>
-      </c>
-      <c r="B103" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>164</v>
-      </c>
-      <c r="B104" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>165</v>
-      </c>
-      <c r="B105" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>167</v>
-      </c>
-      <c r="B106" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>169</v>
-      </c>
-      <c r="B107" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>170</v>
-      </c>
-      <c r="B108" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>171</v>
-      </c>
-      <c r="B109" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>172</v>
-      </c>
-      <c r="B110" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>174</v>
-      </c>
-      <c r="B111" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>175</v>
-      </c>
-      <c r="B112" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>176</v>
-      </c>
-      <c r="B113" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>178</v>
-      </c>
-      <c r="B114" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>179</v>
-      </c>
-      <c r="B115" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>180</v>
-      </c>
-      <c r="B116" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>182</v>
-      </c>
-      <c r="B117" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>183</v>
-      </c>
-      <c r="B118" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>185</v>
-      </c>
-      <c r="B119" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>187</v>
-      </c>
-      <c r="B120" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>188</v>
-      </c>
-      <c r="B121" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>190</v>
-      </c>
-      <c r="B122" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>192</v>
-      </c>
-      <c r="B123" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>193</v>
-      </c>
-      <c r="B124" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>195</v>
-      </c>
-      <c r="B125" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>196</v>
-      </c>
-      <c r="B126" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>197</v>
-      </c>
-      <c r="B127" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>199</v>
-      </c>
-      <c r="B128" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>131</v>
+        <v>291</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>201</v>
+        <v>292</v>
       </c>
       <c r="B130" t="s">
-        <v>202</v>
+        <v>359</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>203</v>
+        <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>131</v>
+        <v>293</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="B132" t="s">
-        <v>131</v>
+        <v>294</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>205</v>
+        <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>206</v>
+        <v>360</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>207</v>
+        <v>295</v>
       </c>
       <c r="B134" t="s">
-        <v>131</v>
+        <v>361</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>131</v>
+        <v>362</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>209</v>
+        <v>296</v>
       </c>
       <c r="B136" t="s">
-        <v>210</v>
+        <v>363</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="B137" t="s">
-        <v>131</v>
+        <v>297</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>212</v>
+        <v>134</v>
       </c>
       <c r="B138" t="s">
-        <v>131</v>
+        <v>298</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>213</v>
+        <v>135</v>
       </c>
       <c r="B139" t="s">
-        <v>214</v>
+        <v>299</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>215</v>
+        <v>136</v>
       </c>
       <c r="B140" t="s">
-        <v>131</v>
+        <v>364</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>216</v>
+        <v>300</v>
       </c>
       <c r="B141" t="s">
-        <v>131</v>
+        <v>301</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c r="B142" t="s">
-        <v>218</v>
+        <v>365</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>219</v>
+        <v>302</v>
       </c>
       <c r="B143" t="s">
-        <v>131</v>
+        <v>303</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>220</v>
+        <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>221</v>
+        <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>222</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>151</v>
+      </c>
+      <c r="B149" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>306</v>
+      </c>
+      <c r="B151" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>307</v>
+      </c>
+      <c r="B152" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>308</v>
+      </c>
+      <c r="B153" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>309</v>
+      </c>
+      <c r="B154" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>310</v>
+      </c>
+      <c r="B155" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>311</v>
+      </c>
+      <c r="B156" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>312</v>
+      </c>
+      <c r="B157" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>314</v>
+      </c>
+      <c r="B158" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>315</v>
+      </c>
+      <c r="B159" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>317</v>
+      </c>
+      <c r="B160" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>318</v>
+      </c>
+      <c r="B161" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>319</v>
+      </c>
+      <c r="B162" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>320</v>
+      </c>
+      <c r="B163" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>322</v>
+      </c>
+      <c r="B164" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>323</v>
+      </c>
+      <c r="B165" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/db/dictionary.xlsx
+++ b/db/dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Library\github\timeline\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED97946-AE4E-4944-B19A-E09007B4CC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575699A1-C5F3-4D2C-9892-72F37AE1A53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="240" windowWidth="23250" windowHeight="15030" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="240" windowWidth="22755" windowHeight="15030" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="English" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="628">
   <si>
     <t>key</t>
   </si>
@@ -968,9 +968,6 @@
     <t>Galba-Otho-Vitellius</t>
   </si>
   <si>
-    <t>Galba, Otho và Vitellius (Year of the Four Emperors)</t>
-  </si>
-  <si>
     <t>Vespasian</t>
   </si>
   <si>
@@ -1127,9 +1124,6 @@
     <t>hơn 85 năm</t>
   </si>
   <si>
-    <t>Xuất Ai Cập from Egypt on Nisan 14th, 1513 B.C.E.</t>
-  </si>
-  <si>
     <t>End of the time of the nations, Gods kingdom starts to rule in heaven 1914 C.E.</t>
   </si>
   <si>
@@ -1536,6 +1530,387 @@
   </si>
   <si>
     <t>Timeline of humankind</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6000 years human history visualized </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timeline of humankind </t>
+  </si>
+  <si>
+    <t>Thirty Years' War in Europe 1618-1648</t>
+  </si>
+  <si>
+    <t>Destruction of Samaria</t>
+  </si>
+  <si>
+    <t>740 B.C.E. by Assyria</t>
+  </si>
+  <si>
+    <t>Destruction of Jerusalem 607 B.C.E. by Babylon, 390 years after the division of the kingdom (Ezekiel 4:5)</t>
+  </si>
+  <si>
+    <t>Temple in Jerusalem rebuilt 515 B.C.E.</t>
+  </si>
+  <si>
+    <t>Jerusalem wall rebuilt 455 B.C.E.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End of the time of the nations, Gods kingdom starts to rule in heaven 1914 C.E. </t>
+  </si>
+  <si>
+    <t>became king at age</t>
+  </si>
+  <si>
+    <t>Vulgate completed by Jerome (Latin translation of the bible) c. 405 C.E.</t>
+  </si>
+  <si>
+    <t>Gutenberg bible printed 1455</t>
+  </si>
+  <si>
+    <t>Greek text of Christian Greek Scriptures published by Desiderius Erasmus of Rotterdam 1516</t>
+  </si>
+  <si>
+    <t>Luther Bible translation in September 1522</t>
+  </si>
+  <si>
+    <t>English Bible translation by Tyndale 1536</t>
+  </si>
+  <si>
+    <t>King James Bible 1611</t>
+  </si>
+  <si>
+    <t>Jesus starts his service 29 CE (Luke 3:1, 21)</t>
+  </si>
+  <si>
+    <t>middle of week “sacrifice to cease” Daniel 9:27</t>
+  </si>
+  <si>
+    <t>Cornelius baptized at the end of 70 weeks (Daniel 9:24) in 36 C.E.</t>
+  </si>
+  <si>
+    <t>end of the pre-columbian period in the Americas 1492</t>
+  </si>
+  <si>
+    <t>declaration of independence of 13 colonies in America 1776</t>
+  </si>
+  <si>
+    <t>Tischendorf discovers the Codex Sinaiticus from the 4th century in 1844</t>
+  </si>
+  <si>
+    <t>Dead Sea Scrolls written</t>
+  </si>
+  <si>
+    <t>Septuagint LXX translated</t>
+  </si>
+  <si>
+    <t>The first issue of “Zion’s Watch Tower and Herald of Christ’s Presence” is published in 1879</t>
+  </si>
+  <si>
+    <t>The “Photo-Drama of Creation” is first shown in New York on January 11, 1914</t>
+  </si>
+  <si>
+    <t>The Bible Students adopted a new name – Jehovah’s Witnesses. In Columbus, Ohio, 1931</t>
+  </si>
+  <si>
+    <t>Watchtower Bible School of Gilead began on Monday, February 1, 1943</t>
+  </si>
+  <si>
+    <t>“New World Translation of the Holy Scriptures” released in Manchester, England on June 18, 1960</t>
+  </si>
+  <si>
+    <t>The book “The Truth That Leads to Eternal Life” released 1968</t>
+  </si>
+  <si>
+    <t>Start of metropolitan witnessing in 2011</t>
+  </si>
+  <si>
+    <t>Start of JW.ORG with instructions in kingdom ministry December 2012</t>
+  </si>
+  <si>
+    <t>Revised “New World Translation of the Holy Scriptures” released at annual meeting 2013</t>
+  </si>
+  <si>
+    <t>Start of jw.broadcasting in October 2014</t>
+  </si>
+  <si>
+    <t>New format of midweek meeting with “meeting workbook” starting January 2016</t>
+  </si>
+  <si>
+    <t>Global Covid-19 pandemic leads to lockdowns, quarantine and zoom-meetings</t>
+  </si>
+  <si>
+    <t>Geopolitical situation labeled “Cold War” 1945-1991</t>
+  </si>
+  <si>
+    <t>This timeline was created at the end of 2023</t>
+  </si>
+  <si>
+    <t>Codex Sinaiticus written</t>
+  </si>
+  <si>
+    <t>Codex Vaticanus written</t>
+  </si>
+  <si>
+    <t>Leningrad Codex written in Cairo AD 1008</t>
+  </si>
+  <si>
+    <t>John writes “revelation” while exiled on Patmos 96-98 C.E.</t>
+  </si>
+  <si>
+    <t>First Council of Nicaea</t>
+  </si>
+  <si>
+    <t>The Buddha – Siddhartha Gautama c.563-c.483 B.C.E</t>
+  </si>
+  <si>
+    <t>Buddha alternatively c. 480-400 B.C.E.</t>
+  </si>
+  <si>
+    <t>Mohammed c. 570-632 C.E.</t>
+  </si>
+  <si>
+    <t>Confucius c.551-c.479 B.C.E.</t>
+  </si>
+  <si>
+    <t>Hijrah - Journey Mecca to Medina 16 July 622</t>
+  </si>
+  <si>
+    <t>1553 B.C.E. Moses has to escape Egypt – Exodus 2:15, Acts 7:23</t>
+  </si>
+  <si>
+    <t>1513 B.C.E Egypt receives 10 plagues</t>
+  </si>
+  <si>
+    <t>Joseph sold as slave at the age of 17 – Gen 37:2</t>
+  </si>
+  <si>
+    <t>400 year infliction (Acts 7:6) – Ishmael 1913 B.C.E</t>
+  </si>
+  <si>
+    <t>Alexander the Great (Daniel 11:3)</t>
+  </si>
+  <si>
+    <t>Cyrus the Great, Cambyses II, Darius I 490 BCE, Xerxes I 480 BCE (husband of Esther, Daniel 11:2)</t>
+  </si>
+  <si>
+    <t>Persia</t>
+  </si>
+  <si>
+    <t>Seleucus I Nicator (v5) Syria to Antiochus III (v10) and Seleucus IV (v18, 19) down to Octavian (v20) and Tiberius (v21-24)</t>
+  </si>
+  <si>
+    <t>King of the North</t>
+  </si>
+  <si>
+    <t>Ptolemy I, II, III, IV (v11, 12), V (v15, 16) to the battle Actium 31 B.C.E.</t>
+  </si>
+  <si>
+    <t>King of the South</t>
+  </si>
+  <si>
+    <t>British empire 1870, Anglo-American World Power since 1914</t>
+  </si>
+  <si>
+    <t>Germany with Emperor William I 1871 (v28), 1914 (v29), 1935 (v30b), 1939 (v31a)</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>Sowjet Union 1945-1991 (Daniel 11:32-39, 40b, 41)</t>
+  </si>
+  <si>
+    <t>Russia since 2017 (w20 May)</t>
+  </si>
+  <si>
+    <t>event_destruction_samaria2</t>
+  </si>
+  <si>
+    <t>event_temple_rebuilt</t>
+  </si>
+  <si>
+    <t>became_king</t>
+  </si>
+  <si>
+    <t>vulgate</t>
+  </si>
+  <si>
+    <t>gutenberg</t>
+  </si>
+  <si>
+    <t>erasmus</t>
+  </si>
+  <si>
+    <t>luther</t>
+  </si>
+  <si>
+    <t>tyndale</t>
+  </si>
+  <si>
+    <t>king_james</t>
+  </si>
+  <si>
+    <t>69weeks3</t>
+  </si>
+  <si>
+    <t>ransom</t>
+  </si>
+  <si>
+    <t>cornelius</t>
+  </si>
+  <si>
+    <t>columbus</t>
+  </si>
+  <si>
+    <t>declaration_independence</t>
+  </si>
+  <si>
+    <t>tischendorf</t>
+  </si>
+  <si>
+    <t>dead_sea_scrolls</t>
+  </si>
+  <si>
+    <t>septuagint</t>
+  </si>
+  <si>
+    <t>watchtower</t>
+  </si>
+  <si>
+    <t>photodrama</t>
+  </si>
+  <si>
+    <t>jehovahs_witnesses</t>
+  </si>
+  <si>
+    <t>gilead_school</t>
+  </si>
+  <si>
+    <t>new_world_translation1</t>
+  </si>
+  <si>
+    <t>truth_book</t>
+  </si>
+  <si>
+    <t>metropolitan</t>
+  </si>
+  <si>
+    <t>jw_org</t>
+  </si>
+  <si>
+    <t>new_world_translation2</t>
+  </si>
+  <si>
+    <t>jw_broadcasting</t>
+  </si>
+  <si>
+    <t>meeting_workbook</t>
+  </si>
+  <si>
+    <t>covid19</t>
+  </si>
+  <si>
+    <t>cold_war</t>
+  </si>
+  <si>
+    <t>timeline_created</t>
+  </si>
+  <si>
+    <t>codex_sinaiticus</t>
+  </si>
+  <si>
+    <t>codex_vaticanus</t>
+  </si>
+  <si>
+    <t>leningrad_codex</t>
+  </si>
+  <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>nicaea1</t>
+  </si>
+  <si>
+    <t>buddha</t>
+  </si>
+  <si>
+    <t>buddha2</t>
+  </si>
+  <si>
+    <t>mohammed</t>
+  </si>
+  <si>
+    <t>confucius</t>
+  </si>
+  <si>
+    <t>hijrah</t>
+  </si>
+  <si>
+    <t>moses_escape</t>
+  </si>
+  <si>
+    <t>10plagues</t>
+  </si>
+  <si>
+    <t>joseph_sold</t>
+  </si>
+  <si>
+    <t>infliction</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>persia</t>
+  </si>
+  <si>
+    <t>persia2</t>
+  </si>
+  <si>
+    <t>king_north</t>
+  </si>
+  <si>
+    <t>king_north1</t>
+  </si>
+  <si>
+    <t>king_south</t>
+  </si>
+  <si>
+    <t>king_south1</t>
+  </si>
+  <si>
+    <t>king_south2</t>
+  </si>
+  <si>
+    <t>king_south3</t>
+  </si>
+  <si>
+    <t>king_north2</t>
+  </si>
+  <si>
+    <t>king_north3</t>
+  </si>
+  <si>
+    <t>king_north4</t>
+  </si>
+  <si>
+    <t>king_north5</t>
+  </si>
+  <si>
+    <t>time_of_end</t>
+  </si>
+  <si>
+    <t>Presence of Christ, Conclusion of the system of things (Matt 24:3), the last days (2Ti 3:1)</t>
+  </si>
+  <si>
+    <t>time_of_end2</t>
+  </si>
+  <si>
+    <t>last days</t>
   </si>
 </sst>
 </file>
@@ -1571,8 +1946,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1768,7 +2146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1795,7 +2173,7 @@
         <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1803,7 +2181,7 @@
         <v>165</v>
       </c>
       <c r="B3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2899,7 +3277,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2923,7 +3301,7 @@
         <v>285</v>
       </c>
       <c r="B125" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -2990,7 +3368,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -3006,7 +3384,7 @@
         <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -3014,7 +3392,7 @@
         <v>296</v>
       </c>
       <c r="B136" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -3182,71 +3560,71 @@
         <v>312</v>
       </c>
       <c r="B157" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B158" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>314</v>
+      </c>
+      <c r="B159" t="s">
         <v>315</v>
-      </c>
-      <c r="B159" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B160" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B161" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B162" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>319</v>
+      </c>
+      <c r="B163" t="s">
         <v>320</v>
-      </c>
-      <c r="B163" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B164" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>322</v>
+      </c>
+      <c r="B165" t="s">
         <v>323</v>
-      </c>
-      <c r="B165" t="s">
-        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -3286,7 +3664,7 @@
         <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3294,7 +3672,7 @@
         <v>165</v>
       </c>
       <c r="B3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3326,7 +3704,7 @@
         <v>155</v>
       </c>
       <c r="B7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3334,7 +3712,7 @@
         <v>168</v>
       </c>
       <c r="B8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3342,7 +3720,7 @@
         <v>170</v>
       </c>
       <c r="B9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3350,7 +3728,7 @@
         <v>171</v>
       </c>
       <c r="B10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3358,7 +3736,7 @@
         <v>173</v>
       </c>
       <c r="B11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3366,7 +3744,7 @@
         <v>157</v>
       </c>
       <c r="B12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3374,7 +3752,7 @@
         <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3382,7 +3760,7 @@
         <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3390,7 +3768,7 @@
         <v>159</v>
       </c>
       <c r="B15" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3398,7 +3776,7 @@
         <v>160</v>
       </c>
       <c r="B16" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3406,7 +3784,7 @@
         <v>161</v>
       </c>
       <c r="B17" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3414,7 +3792,7 @@
         <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3422,7 +3800,7 @@
         <v>163</v>
       </c>
       <c r="B19" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3446,7 +3824,7 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3454,7 +3832,7 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3462,7 +3840,7 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3470,7 +3848,7 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3478,7 +3856,7 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -3486,7 +3864,7 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -3494,7 +3872,7 @@
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -3518,7 +3896,7 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -3526,7 +3904,7 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -3534,7 +3912,7 @@
         <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -3542,7 +3920,7 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -3550,7 +3928,7 @@
         <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -3558,7 +3936,7 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -3566,7 +3944,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -3574,7 +3952,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -3622,7 +4000,7 @@
         <v>194</v>
       </c>
       <c r="B44" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3633,7 +4011,7 @@
         <v>195</v>
       </c>
       <c r="B45" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -3644,7 +4022,7 @@
         <v>197</v>
       </c>
       <c r="B46" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -3655,7 +4033,7 @@
         <v>199</v>
       </c>
       <c r="B47" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -3666,7 +4044,7 @@
         <v>201</v>
       </c>
       <c r="B48" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -3677,7 +4055,7 @@
         <v>202</v>
       </c>
       <c r="B49" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -3688,7 +4066,7 @@
         <v>204</v>
       </c>
       <c r="B50" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C50">
         <v>7</v>
@@ -3699,7 +4077,7 @@
         <v>205</v>
       </c>
       <c r="B51" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C51">
         <v>8</v>
@@ -3710,7 +4088,7 @@
         <v>207</v>
       </c>
       <c r="B52" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C52">
         <v>9</v>
@@ -3721,7 +4099,7 @@
         <v>209</v>
       </c>
       <c r="B53" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C53">
         <v>10</v>
@@ -3732,7 +4110,7 @@
         <v>211</v>
       </c>
       <c r="B54" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C54">
         <v>11</v>
@@ -3743,7 +4121,7 @@
         <v>212</v>
       </c>
       <c r="B55" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C55">
         <v>12</v>
@@ -3787,7 +4165,7 @@
         <v>120</v>
       </c>
       <c r="B59" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -3798,7 +4176,7 @@
         <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C60" t="s">
         <v>154</v>
@@ -3809,7 +4187,7 @@
         <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C61" t="s">
         <v>59</v>
@@ -3820,7 +4198,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -3828,7 +4206,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C63" t="s">
         <v>62</v>
@@ -3839,7 +4217,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -3847,7 +4225,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -3855,7 +4233,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C66" t="s">
         <v>67</v>
@@ -3866,7 +4244,7 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -3874,7 +4252,7 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -3882,7 +4260,7 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C69" t="s">
         <v>72</v>
@@ -3901,7 +4279,7 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -3909,7 +4287,7 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -3917,7 +4295,7 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -3933,7 +4311,7 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -3941,7 +4319,7 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C76" t="s">
         <v>80</v>
@@ -3952,7 +4330,7 @@
         <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -3960,7 +4338,7 @@
         <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C78" t="s">
         <v>83</v>
@@ -3979,7 +4357,7 @@
         <v>85</v>
       </c>
       <c r="B80" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C80" t="s">
         <v>86</v>
@@ -3990,7 +4368,7 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -4001,7 +4379,7 @@
         <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -4009,7 +4387,7 @@
         <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -4017,7 +4395,7 @@
         <v>91</v>
       </c>
       <c r="B84" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C84" t="s">
         <v>92</v>
@@ -4028,7 +4406,7 @@
         <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C85" t="s">
         <v>95</v>
@@ -4039,7 +4417,7 @@
         <v>96</v>
       </c>
       <c r="B86" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C86" t="s">
         <v>98</v>
@@ -4050,7 +4428,7 @@
         <v>99</v>
       </c>
       <c r="B87" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -4058,7 +4436,7 @@
         <v>65</v>
       </c>
       <c r="B88" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -4066,7 +4444,7 @@
         <v>64</v>
       </c>
       <c r="B89" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -4082,7 +4460,7 @@
         <v>101</v>
       </c>
       <c r="B91" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -4090,7 +4468,7 @@
         <v>102</v>
       </c>
       <c r="B92" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C92" t="s">
         <v>104</v>
@@ -4101,7 +4479,7 @@
         <v>105</v>
       </c>
       <c r="B93" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C93" t="s">
         <v>106</v>
@@ -4112,7 +4490,7 @@
         <v>107</v>
       </c>
       <c r="B94" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -4120,7 +4498,7 @@
         <v>109</v>
       </c>
       <c r="B95" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C95" t="s">
         <v>110</v>
@@ -4150,7 +4528,7 @@
         <v>114</v>
       </c>
       <c r="B98" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -4158,7 +4536,7 @@
         <v>115</v>
       </c>
       <c r="B99" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -4166,7 +4544,7 @@
         <v>116</v>
       </c>
       <c r="B100" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C100" t="s">
         <v>117</v>
@@ -4177,7 +4555,7 @@
         <v>248</v>
       </c>
       <c r="B101" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -4185,7 +4563,7 @@
         <v>250</v>
       </c>
       <c r="B102" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -4193,7 +4571,7 @@
         <v>252</v>
       </c>
       <c r="B103" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -4209,7 +4587,7 @@
         <v>255</v>
       </c>
       <c r="B105" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -4225,7 +4603,7 @@
         <v>259</v>
       </c>
       <c r="B107" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -4233,7 +4611,7 @@
         <v>261</v>
       </c>
       <c r="B108" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -4241,7 +4619,7 @@
         <v>263</v>
       </c>
       <c r="B109" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -4257,7 +4635,7 @@
         <v>267</v>
       </c>
       <c r="B111" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -4281,7 +4659,7 @@
         <v>272</v>
       </c>
       <c r="B114" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -4289,7 +4667,7 @@
         <v>274</v>
       </c>
       <c r="B115" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -4297,7 +4675,7 @@
         <v>275</v>
       </c>
       <c r="B116" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -4313,7 +4691,7 @@
         <v>278</v>
       </c>
       <c r="B118" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -4321,7 +4699,7 @@
         <v>279</v>
       </c>
       <c r="B119" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -4337,7 +4715,7 @@
         <v>282</v>
       </c>
       <c r="B121" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -4345,7 +4723,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -4361,7 +4739,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -4369,7 +4747,7 @@
         <v>285</v>
       </c>
       <c r="B125" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -4377,7 +4755,7 @@
         <v>286</v>
       </c>
       <c r="B126" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -4385,7 +4763,7 @@
         <v>287</v>
       </c>
       <c r="B127" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -4393,7 +4771,7 @@
         <v>289</v>
       </c>
       <c r="B128" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C128" t="s">
         <v>126</v>
@@ -4404,7 +4782,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -4412,7 +4790,7 @@
         <v>292</v>
       </c>
       <c r="B130" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -4420,7 +4798,7 @@
         <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -4428,7 +4806,7 @@
         <v>127</v>
       </c>
       <c r="B132" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -4436,7 +4814,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -4444,7 +4822,7 @@
         <v>295</v>
       </c>
       <c r="B134" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -4452,7 +4830,7 @@
         <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -4460,7 +4838,7 @@
         <v>296</v>
       </c>
       <c r="B136" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -4468,7 +4846,7 @@
         <v>133</v>
       </c>
       <c r="B137" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -4476,7 +4854,7 @@
         <v>134</v>
       </c>
       <c r="B138" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -4484,7 +4862,7 @@
         <v>135</v>
       </c>
       <c r="B139" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -4492,7 +4870,7 @@
         <v>136</v>
       </c>
       <c r="B140" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -4500,7 +4878,7 @@
         <v>300</v>
       </c>
       <c r="B141" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -4508,7 +4886,7 @@
         <v>139</v>
       </c>
       <c r="B142" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -4516,7 +4894,7 @@
         <v>302</v>
       </c>
       <c r="B143" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -4524,7 +4902,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -4532,7 +4910,7 @@
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -4540,7 +4918,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -4548,7 +4926,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -4556,7 +4934,7 @@
         <v>149</v>
       </c>
       <c r="B148" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -4564,7 +4942,7 @@
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -4572,7 +4950,7 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -4628,71 +5006,71 @@
         <v>312</v>
       </c>
       <c r="B157" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B158" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B159" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B160" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B161" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B162" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B163" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B164" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B165" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -4703,607 +5081,744 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD92866-9610-471E-81FF-54D633F34B16}">
-  <dimension ref="A1:C165"/>
+  <dimension ref="A1:C225"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="56.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" customWidth="1"/>
+    <col min="5" max="5" width="1.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
-        <v>50</v>
+      <c r="C1" s="1" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>164</v>
       </c>
-      <c r="B2" t="s">
-        <v>325</v>
+      <c r="B2" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>165</v>
       </c>
-      <c r="B3" t="s">
-        <v>326</v>
+      <c r="B3" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>166</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>167</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>327</v>
+      <c r="B6" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>155</v>
       </c>
-      <c r="B7" t="s">
-        <v>327</v>
+      <c r="B7" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>168</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>169</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>170</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>169</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>171</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>172</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>173</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>172</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>157</v>
       </c>
-      <c r="B12" t="s">
-        <v>328</v>
+      <c r="B12" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>158</v>
       </c>
-      <c r="B13" t="s">
-        <v>329</v>
+      <c r="B13" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>123</v>
       </c>
-      <c r="B14" t="s">
-        <v>330</v>
+      <c r="B14" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>159</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>174</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>160</v>
       </c>
-      <c r="B16" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>161</v>
       </c>
-      <c r="B17" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>162</v>
       </c>
-      <c r="B18" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>163</v>
       </c>
-      <c r="B19" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="B20" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
-      <c r="B21" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
-      <c r="B25" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>183</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>184</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>185</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>30</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>186</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>187</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>188</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>189</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>190</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>191</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>338</v>
+      <c r="B41" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>192</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>193</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>194</v>
       </c>
-      <c r="B44" t="s">
-        <v>339</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
+      <c r="B44" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>195</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C45">
-        <v>2</v>
+      <c r="C45" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>197</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C46">
-        <v>3</v>
+      <c r="C46" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>199</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C47">
-        <v>4</v>
+      <c r="C47" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>201</v>
       </c>
-      <c r="B48" t="s">
-        <v>340</v>
-      </c>
-      <c r="C48">
-        <v>5</v>
+      <c r="B48" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>202</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C49">
-        <v>6</v>
+      <c r="C49" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>204</v>
       </c>
-      <c r="B50" t="s">
-        <v>341</v>
-      </c>
-      <c r="C50">
-        <v>7</v>
+      <c r="B50" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>205</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C51">
-        <v>8</v>
+      <c r="C51" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>207</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C52">
-        <v>9</v>
+      <c r="C52" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>209</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C53">
-        <v>10</v>
+      <c r="C53" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>211</v>
       </c>
-      <c r="B54" t="s">
-        <v>342</v>
-      </c>
-      <c r="C54">
-        <v>11</v>
+      <c r="B54" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>212</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C55">
-        <v>12</v>
+      <c r="C55" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>214</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C56">
-        <v>13</v>
+      <c r="C56" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>118</v>
       </c>
-      <c r="B57" t="s">
-        <v>343</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
+      <c r="B57" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>119</v>
       </c>
-      <c r="B58" t="s">
-        <v>344</v>
-      </c>
-      <c r="C58">
-        <v>2</v>
+      <c r="B58" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>120</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C59">
-        <v>3</v>
+      <c r="C59" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>55</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C60" t="s">
-        <v>56</v>
+      <c r="C60" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>57</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C61" t="s">
-        <v>59</v>
+      <c r="C61" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>219</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C63" t="s">
-        <v>62</v>
+      <c r="C63" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>221</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>222</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
-      <c r="B66" t="s">
-        <v>345</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B66" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -5311,245 +5826,296 @@
       <c r="A67" t="s">
         <v>68</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>223</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>224</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C69" t="s">
-        <v>72</v>
+      <c r="C69" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>73</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>226</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>74</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>222</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>75</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>227</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>76</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>228</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>77</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>229</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>78</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>230</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>79</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C76" t="s">
-        <v>80</v>
+      <c r="C76" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>81</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>232</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>82</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C78" t="s">
-        <v>83</v>
+      <c r="C78" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>84</v>
       </c>
-      <c r="B79" t="s">
-        <v>346</v>
+      <c r="B79" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>85</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C80" t="s">
-        <v>86</v>
+      <c r="C80" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>87</v>
       </c>
-      <c r="B81" t="s">
-        <v>347</v>
-      </c>
-      <c r="C81" t="s">
-        <v>88</v>
+      <c r="B81" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>89</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>235</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>90</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
         <v>236</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>91</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C84" t="s">
-        <v>92</v>
+      <c r="C84" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>93</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C85" t="s">
-        <v>95</v>
+      <c r="C85" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>96</v>
       </c>
-      <c r="B86" t="s">
-        <v>348</v>
-      </c>
-      <c r="C86" t="s">
-        <v>98</v>
+      <c r="B86" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>99</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="1" t="s">
         <v>239</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>65</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
         <v>222</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>64</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
         <v>221</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>100</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="1" t="s">
         <v>240</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>101</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="1" t="s">
         <v>231</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>102</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C92" t="s">
-        <v>104</v>
+      <c r="C92" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>105</v>
       </c>
-      <c r="B93" t="s">
-        <v>349</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="B93" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5557,256 +6123,340 @@
       <c r="A94" t="s">
         <v>107</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
         <v>242</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>109</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C95" t="s">
-        <v>110</v>
+      <c r="C95" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>111</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C96" t="s">
-        <v>112</v>
+      <c r="C96" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>113</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="1" t="s">
         <v>245</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>114</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="1" t="s">
         <v>246</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>115</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="1" t="s">
         <v>246</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>116</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C100" t="s">
-        <v>117</v>
+      <c r="C100" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>248</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="1" t="s">
         <v>249</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>250</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="1" t="s">
         <v>251</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>252</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="1" t="s">
         <v>253</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>254</v>
       </c>
-      <c r="B104" t="s">
-        <v>350</v>
+      <c r="B104" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>255</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="1" t="s">
         <v>256</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>257</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="1" t="s">
         <v>258</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>259</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="1" t="s">
         <v>260</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>261</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="1" t="s">
         <v>262</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>263</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="1" t="s">
         <v>264</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>265</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="1" t="s">
         <v>266</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>267</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="1" t="s">
         <v>268</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>269</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="1" t="s">
         <v>270</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>271</v>
       </c>
-      <c r="B113" t="s">
-        <v>351</v>
+      <c r="B113" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>272</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="1" t="s">
         <v>273</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>274</v>
       </c>
-      <c r="B115" t="s">
-        <v>352</v>
+      <c r="B115" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>275</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="1" t="s">
         <v>276</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>277</v>
       </c>
-      <c r="B117" t="s">
-        <v>353</v>
+      <c r="B117" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>278</v>
       </c>
-      <c r="B118" t="s">
-        <v>354</v>
+      <c r="B118" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>279</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="1" t="s">
         <v>280</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>281</v>
       </c>
-      <c r="B120" t="s">
-        <v>355</v>
+      <c r="B120" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>282</v>
       </c>
-      <c r="B121" t="s">
-        <v>356</v>
+      <c r="B121" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
-      <c r="B122" t="s">
-        <v>357</v>
+      <c r="B122" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>283</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="1" t="s">
         <v>193</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>122</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>284</v>
       </c>
     </row>
@@ -5814,15 +6464,21 @@
       <c r="A125" t="s">
         <v>285</v>
       </c>
-      <c r="B125" t="s">
-        <v>358</v>
+      <c r="B125" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>286</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5830,7 +6486,10 @@
       <c r="A127" t="s">
         <v>287</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5838,311 +6497,1083 @@
       <c r="A128" t="s">
         <v>289</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C128" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>129</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>292</v>
       </c>
-      <c r="B130" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>128</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>127</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="1" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>131</v>
       </c>
-      <c r="B133" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>295</v>
       </c>
-      <c r="B134" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>132</v>
       </c>
-      <c r="B135" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>296</v>
       </c>
-      <c r="B136" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>133</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C137" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>134</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="1" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C138" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>135</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="1" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C139" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>136</v>
       </c>
-      <c r="B140" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>300</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C141" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>139</v>
       </c>
-      <c r="B142" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B142" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>302</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C143" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>142</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C144" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>147</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>144</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C146" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C147" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>149</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C148" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>151</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C149" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>153</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C150" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>306</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C151" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>307</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C152" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>308</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C153" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>309</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C154" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>310</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C155" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>311</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C156" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>312</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="B158" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>316</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>314</v>
       </c>
-      <c r="B158" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="B160" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B159" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="C160" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>321</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>566</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>318</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>567</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>322</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>319</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>317</v>
       </c>
-      <c r="B160" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>318</v>
-      </c>
-      <c r="B161" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>319</v>
-      </c>
-      <c r="B162" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>320</v>
-      </c>
-      <c r="B163" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>322</v>
-      </c>
-      <c r="B164" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>323</v>
-      </c>
-      <c r="B165" t="s">
-        <v>324</v>
+      <c r="B167" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>568</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>569</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>570</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>571</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>572</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>573</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>574</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>575</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>576</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>577</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>578</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>579</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>580</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>581</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>582</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>583</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>584</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>585</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>586</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>587</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>588</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>589</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>590</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>591</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>592</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>593</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>594</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>595</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>596</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>597</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>598</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>599</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>600</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>601</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>602</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>603</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>604</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>605</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>606</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>607</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>608</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>609</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>610</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>611</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>612</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>613</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>614</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>615</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>616</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>617</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>618</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>619</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>620</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>621</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>622</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>623</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>624</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>626</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>627</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/db/dictionary.xlsx
+++ b/db/dictionary.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Library\github\timeline\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575699A1-C5F3-4D2C-9892-72F37AE1A53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830460B4-D79D-421D-BCEB-7623483E28A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="240" windowWidth="22755" windowHeight="15030" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29655" yWindow="780" windowWidth="22755" windowHeight="15030" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="English" sheetId="1" r:id="rId1"/>
     <sheet name="Deutsch" sheetId="2" r:id="rId2"/>
     <sheet name="Vietnamese" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">Vietnamese!$1:$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="704">
   <si>
     <t>key</t>
   </si>
@@ -899,9 +902,6 @@
     <t>temple2</t>
   </si>
   <si>
-    <t>479 years until the temple construction – 1 Các vua 6:1</t>
-  </si>
-  <si>
     <t>Jesus baptized autumn 29 C.E.</t>
   </si>
   <si>
@@ -926,9 +926,6 @@
     <t>World War II – 1939–1945 C.E.</t>
   </si>
   <si>
-    <t>30 year war in Europe 1618-1648 C.E.</t>
-  </si>
-  <si>
     <t>joshua2</t>
   </si>
   <si>
@@ -998,9 +995,6 @@
     <t>event_jerusalem_rebuilt</t>
   </si>
   <si>
-    <t>Jerusalem rebuilt 455 B.C.E.</t>
-  </si>
-  <si>
     <t>6000 năm lịch sử loài người được hình dung</t>
   </si>
   <si>
@@ -1100,39 +1094,18 @@
     <t>1593 to 1473 TCN – 120 năm</t>
   </si>
   <si>
-    <t>1473 to 1117 TCN – 356 năm</t>
-  </si>
-  <si>
-    <t>69 weeks to the Messiah – Đa-ni-ên 9:25</t>
-  </si>
-  <si>
-    <t>607 to 537 B.C.E. – 70 năm (Giê-rê-mi 25:11)</t>
-  </si>
-  <si>
     <t>lưu vong</t>
   </si>
   <si>
     <t>Khải huyền 12:9</t>
   </si>
   <si>
-    <t>7 times – 2520 years to the Messianic Kingdom 1914 C.E. (Đa-ni-ên 4:23)</t>
-  </si>
-  <si>
     <t>110 năm</t>
   </si>
   <si>
     <t>hơn 85 năm</t>
   </si>
   <si>
-    <t>End of the time of the nations, Gods kingdom starts to rule in heaven 1914 C.E.</t>
-  </si>
-  <si>
-    <t>Destruction of Jerusalem 607 B.C.E. by Babylon</t>
-  </si>
-  <si>
-    <t>Destruction of Samaria 740 B.C.E. by Assyria</t>
-  </si>
-  <si>
     <t>6000 Jahre Menschheitsgeschichte visualisiert</t>
   </si>
   <si>
@@ -1526,12 +1499,6 @@
     <t>Exodus from Egypt on Nisan 14th, 1513 B.C.E.</t>
   </si>
   <si>
-    <t>6000 years human history visualized</t>
-  </si>
-  <si>
-    <t>Timeline of humankind</t>
-  </si>
-  <si>
     <t>english</t>
   </si>
   <si>
@@ -1646,9 +1613,6 @@
     <t>Geopolitical situation labeled “Cold War” 1945-1991</t>
   </si>
   <si>
-    <t>This timeline was created at the end of 2023</t>
-  </si>
-  <si>
     <t>Codex Sinaiticus written</t>
   </si>
   <si>
@@ -1911,6 +1875,273 @@
   </si>
   <si>
     <t>last days</t>
+  </si>
+  <si>
+    <t>Y-sơ-ra-ên trong đồng vắng 1513 đến 1473 TCN - 40 năm</t>
+  </si>
+  <si>
+    <t>1473 đến 1117 TCN – 356 năm</t>
+  </si>
+  <si>
+    <t>Thời gian của trọng tài</t>
+  </si>
+  <si>
+    <t>Nisan 1513 TCN đến Ziv 1034 TCN</t>
+  </si>
+  <si>
+    <t>479 năm mới xây dựng đền – 1 Các vua 6:1</t>
+  </si>
+  <si>
+    <t>Chúa Giê-su làm báp-têm vào mùa thu năm 29 CN</t>
+  </si>
+  <si>
+    <t>69 tuần đến với Đấng Mê-si – Đa-ni-ên 9:25</t>
+  </si>
+  <si>
+    <t>3,5 năm phụng sự Chúa Giê-su, bị xử tử vào ngày 14 Ni-san năm 33 CN.</t>
+  </si>
+  <si>
+    <t>Chúa Giê-su sinh năm 2 TCN</t>
+  </si>
+  <si>
+    <t>607 đến 537 TCN – 70 năm (Giê-rê-mi 25:11)</t>
+  </si>
+  <si>
+    <t>7 lần – 2520 năm đến Nước Đấng Mê-si 1914 CN (Đa-ni-ên 4:23)</t>
+  </si>
+  <si>
+    <t>Thế chiến thứ nhất – 1914–1918 CN</t>
+  </si>
+  <si>
+    <t>Thế chiến thứ hai – 1939–1945 CN</t>
+  </si>
+  <si>
+    <t>Chiến tranh 30 năm ở châu Âu 1618-1648 CN</t>
+  </si>
+  <si>
+    <t>Hành trình truyền giáo đầu tiên của Phaolô, c. 47-48 CN với Ba-na-ba và Giăng Mác</t>
+  </si>
+  <si>
+    <t>Vấn đề cắt bao quy đầu tại Antioch, hội nghị ở Jerusalem c. 49 CN</t>
+  </si>
+  <si>
+    <t>Hành trình truyền giáo lần thứ hai c. 49-52 CN với Si-la (Silvanus)</t>
+  </si>
+  <si>
+    <t>Hành trình truyền giáo lần thứ ba c. 52-56 CN</t>
+  </si>
+  <si>
+    <t>Phao-lô bị giam ở Sê-sa-rê c. 56-58 CN</t>
+  </si>
+  <si>
+    <t>Phao-lô bị tù lần đầu ở Rô-ma c. 59-61 CN</t>
+  </si>
+  <si>
+    <t>Phao-lô bị tù lần thứ hai ở Rô-ma c. 65 CN, 2 Ti-mô-thê được viết, Phao-lô bị xử tử</t>
+  </si>
+  <si>
+    <t>Galba, Otho và Vitellius (Năm Tứ Hoàng)</t>
+  </si>
+  <si>
+    <t>Cuộc di cư sang Ai Cập vào ngày 14 tháng Ni-san năm 1513 TCN</t>
+  </si>
+  <si>
+    <t>Sự phân chia của Israel 997 TCN</t>
+  </si>
+  <si>
+    <t>Sự hủy diệt Sa-ma-ri</t>
+  </si>
+  <si>
+    <t>740 TCN bởi người Assyria</t>
+  </si>
+  <si>
+    <t>Sự hủy diệt thành Giê-ru-sa-lem 607 TCN bởi Babylon</t>
+  </si>
+  <si>
+    <t>Sự phá hủy thành Giê-ru-sa-lem vào năm 70 CN bởi La Mã dưới thời Titus</t>
+  </si>
+  <si>
+    <t>Cuối thời kỳ của các dân tộc, vương quốc của Đức Chúa Trời bắt đầu cai trị trên trời 1914 CN.</t>
+  </si>
+  <si>
+    <t>trở thành vua ở tuổi</t>
+  </si>
+  <si>
+    <t>Vulgate được hoàn thành bởi Jerome (bản dịch kinh thánh bằng tiếng Latinh) c. 405 CN</t>
+  </si>
+  <si>
+    <t>Kinh thánh Gutenberg in năm 1455</t>
+  </si>
+  <si>
+    <t>Văn bản tiếng Hy Lạp trong Kinh thánh tiếng Hy Lạp do Desiderius Erasmus ở Rotterdam xuất bản năm 1516</t>
+  </si>
+  <si>
+    <t>Bản dịch Kinh thánh Luther vào tháng 9 năm 1522</t>
+  </si>
+  <si>
+    <t>Bản dịch Kinh thánh tiếng Anh của Tyndale 1536</t>
+  </si>
+  <si>
+    <t>Kinh thánh King James 1611</t>
+  </si>
+  <si>
+    <t>Chúa Giê-su bắt đầu phục vụ vào năm 29 CN (Lu-ca 3:1, 21)</t>
+  </si>
+  <si>
+    <t>giữa tuần “hy sinh để chấm dứt” Đa-ni-ên 9:27</t>
+  </si>
+  <si>
+    <t>Cọt-nây làm báp-têm vào cuối 70 tuần lễ (Đa-ni-ên 9:24) vào năm 36 CN.</t>
+  </si>
+  <si>
+    <t>kết thúc thời kỳ tiền Colombia ở châu Mỹ 1492</t>
+  </si>
+  <si>
+    <t>Tuyên ngôn độc lập của 13 thuộc địa ở Mỹ 1776</t>
+  </si>
+  <si>
+    <t>Tischendorf phát hiện ra Codex Sinaiticus từ thế kỷ thứ 4 năm 1844</t>
+  </si>
+  <si>
+    <t>Cuộn giấy Biển Chết được viết</t>
+  </si>
+  <si>
+    <t>Bản Bảy Mươi LXX được dịch</t>
+  </si>
+  <si>
+    <t>Số đầu tiên của tạp chí “Tháp canh Si-ôn và Sứ giả về sự hiện diện của Đấng Christ” được xuất bản năm 1879</t>
+  </si>
+  <si>
+    <t>“Kịch ảnh về sự sáng tạo” được trình chiếu lần đầu tiên tại New York vào ngày 11 tháng 1 năm 1914</t>
+  </si>
+  <si>
+    <t>Các Học viên Kinh Thánh lấy một tên mới – Nhân Chứng Giê-hô-va. Ở Columbus, Ohio, 1931</t>
+  </si>
+  <si>
+    <t>Trường Kinh Thánh Ga-la-át của Tháp Canh bắt đầu vào thứ Hai ngày 1 tháng 2 năm 1943</t>
+  </si>
+  <si>
+    <t>“Bản dịch Kinh Thánh Thế Giới Mới” ra mắt tại Manchester, Anh quốc vào ngày 18-6-1960</t>
+  </si>
+  <si>
+    <t>Sách “Sự Thật Dẫn Đến Sự Sống Đời Đời” xuất bản năm 1968</t>
+  </si>
+  <si>
+    <t>Bắt đầu làm chứng tại đô thị vào năm 2011</t>
+  </si>
+  <si>
+    <t>Bắt đầu JW.ORG với những hướng dẫn trong mục vụ vương quốc Tháng 12 năm 2012</t>
+  </si>
+  <si>
+    <t>Bản “Bản dịch Kinh Thánh Thế Giới Mới” được sửa đổi được phát hành tại cuộc họp thường niên năm 2013</t>
+  </si>
+  <si>
+    <t>Bắt đầu phát sóng jw.broadcast vào tháng 10 năm 2014</t>
+  </si>
+  <si>
+    <t>Hình thức mới của cuộc họp giữa tuần với “sổ bài tập cuộc họp” bắt đầu từ tháng 1 năm 2016</t>
+  </si>
+  <si>
+    <t>Đại dịch Covid-19 toàn cầu dẫn đến việc đóng cửa, cách ly và các cuộc họp thu phóng</t>
+  </si>
+  <si>
+    <t>Tình hình địa chính trị gắn mác “Chiến tranh Lạnh” 1945-1991</t>
+  </si>
+  <si>
+    <t>Codex Sinaiticus được viết</t>
+  </si>
+  <si>
+    <t>ngôi đền được xây dựng lại 515 TCN</t>
+  </si>
+  <si>
+    <t>Giê-ru-sa-lem được xây dựng lại 455 TCN</t>
+  </si>
+  <si>
+    <t>Codex Vaticanus được viết</t>
+  </si>
+  <si>
+    <t>Leningrad Codex được viết ở Cairo năm 1008 TN</t>
+  </si>
+  <si>
+    <t>John viết “Khải huyền” khi bị lưu đày ở Bát-mô vào năm 96-98 CN.</t>
+  </si>
+  <si>
+    <t>Công đồng Nicaea đầu tiên</t>
+  </si>
+  <si>
+    <t>Đức Phật – Siddhartha Gautama c.563-c.483 B.C.E</t>
+  </si>
+  <si>
+    <t>Đức Phật thay thế c. 480-400 TCN</t>
+  </si>
+  <si>
+    <t>Mohammed c. 570-632 CN</t>
+  </si>
+  <si>
+    <t>Khổng Tử c.551-c.479 TCN</t>
+  </si>
+  <si>
+    <t>Hijrah - Mecca đến Medina 16. 7. 622</t>
+  </si>
+  <si>
+    <t>1553 TCN Môi-se phải trốn khỏi Ai Cập – Xuất Ai Cập 2:15, Công vụ 7:23</t>
+  </si>
+  <si>
+    <t>1513 TCN Ai Cập hứng chịu 10 trận dịch</t>
+  </si>
+  <si>
+    <t>Giô-sép bị bán làm nô lệ ở tuổi 17 – Sáng thế ký 37:2</t>
+  </si>
+  <si>
+    <t>400 năm trừng phạt (Công vụ 7:6) – Ishmael 1913 TCN</t>
+  </si>
+  <si>
+    <t>Alexander Đại Đế (Đa-ni-ên 11:3)</t>
+  </si>
+  <si>
+    <t>Cyrus Đại Đế, Cambyses II, Darius I 490 TCN, Xerxes I 480 TCN (chồng của Esther, Daniel 11:2)</t>
+  </si>
+  <si>
+    <t>Ba Tư</t>
+  </si>
+  <si>
+    <t>Seleukos I Nicator (v5) Syria đến Antiochus III (v10) và Seleukos IV (v18, 19) xuống Octavian (v20) và Tiberius (v21-24)</t>
+  </si>
+  <si>
+    <t>Vua phương Bắc</t>
+  </si>
+  <si>
+    <t>Ptolemy I, II, III, IV (v11, 12), V (v15, 16) tới Trận Actium 31 TCN</t>
+  </si>
+  <si>
+    <t>Vua phương Nam</t>
+  </si>
+  <si>
+    <t>Đế quốc Anh 1870, Cường quốc Thế giới Anh-Mỹ từ 1914</t>
+  </si>
+  <si>
+    <t>Đức với Hoàng đế William I 1871 (v28), 1914 (v29), 1935 (v30b), 1939 (v31a)</t>
+  </si>
+  <si>
+    <t>Bắc</t>
+  </si>
+  <si>
+    <t>Liên Xô 1945-1991 (Đa-ni-ên 11:32-39, 40b, 41)</t>
+  </si>
+  <si>
+    <t>Nga kể từ năm 2017 (w20 tháng 5)</t>
+  </si>
+  <si>
+    <t>Sự hiện diện của Đấng Christ, Sự kết thúc của hệ thống mọi sự (Ma-thi-ơ 24:3), ngày sau rốt (2Ti 3:1)</t>
+  </si>
+  <si>
+    <t>ngày cuối cùng</t>
+  </si>
+  <si>
+    <t>This timeline was created at the end of 2023, the hottest year in the last 125,000 years</t>
+  </si>
+  <si>
+    <t>Dòng thời gian này được tạo ra vào cuối năm 2023, năm nóng nhất trong 125.000 năm qua</t>
   </si>
 </sst>
 </file>
@@ -2144,10 +2375,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C165"/>
+  <dimension ref="A1:C225"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2172,23 +2404,23 @@
       <c r="A2" t="s">
         <v>164</v>
       </c>
-      <c r="B2" t="s">
-        <v>499</v>
+      <c r="B2" s="1" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>165</v>
       </c>
-      <c r="B3" t="s">
-        <v>500</v>
+      <c r="B3" s="1" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2196,7 +2428,7 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2204,7 +2436,7 @@
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2212,7 +2444,7 @@
       <c r="A7" t="s">
         <v>155</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2220,7 +2452,7 @@
       <c r="A8" t="s">
         <v>168</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2228,7 +2460,7 @@
       <c r="A9" t="s">
         <v>170</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2236,7 +2468,7 @@
       <c r="A10" t="s">
         <v>171</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2244,7 +2476,7 @@
       <c r="A11" t="s">
         <v>173</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2252,7 +2484,7 @@
       <c r="A12" t="s">
         <v>157</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2260,7 +2492,7 @@
       <c r="A13" t="s">
         <v>158</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2268,7 +2500,7 @@
       <c r="A14" t="s">
         <v>123</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2276,7 +2508,7 @@
       <c r="A15" t="s">
         <v>159</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2284,7 +2516,7 @@
       <c r="A16" t="s">
         <v>160</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2292,7 +2524,7 @@
       <c r="A17" t="s">
         <v>161</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2300,7 +2532,7 @@
       <c r="A18" t="s">
         <v>162</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2308,7 +2540,7 @@
       <c r="A19" t="s">
         <v>163</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2316,7 +2548,7 @@
       <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2324,7 +2556,7 @@
       <c r="A21" t="s">
         <v>5</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2332,7 +2564,7 @@
       <c r="A22" t="s">
         <v>6</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -2343,7 +2575,7 @@
       <c r="A23" t="s">
         <v>8</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
@@ -2354,7 +2586,7 @@
       <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C24" t="s">
@@ -2365,7 +2597,7 @@
       <c r="A25" t="s">
         <v>12</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C25" t="s">
@@ -2376,7 +2608,7 @@
       <c r="A26" t="s">
         <v>14</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C26" t="s">
@@ -2387,7 +2619,7 @@
       <c r="A27" t="s">
         <v>16</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C27" t="s">
@@ -2398,7 +2630,7 @@
       <c r="A28" t="s">
         <v>18</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C28" t="s">
@@ -2409,7 +2641,7 @@
       <c r="A29" t="s">
         <v>20</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2417,7 +2649,7 @@
       <c r="A30" t="s">
         <v>21</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2425,7 +2657,7 @@
       <c r="A31" t="s">
         <v>22</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C31" t="s">
@@ -2436,7 +2668,7 @@
       <c r="A32" t="s">
         <v>24</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C32" t="s">
@@ -2447,7 +2679,7 @@
       <c r="A33" t="s">
         <v>26</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C33" t="s">
@@ -2458,7 +2690,7 @@
       <c r="A34" t="s">
         <v>28</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C34" t="s">
@@ -2469,7 +2701,7 @@
       <c r="A35" t="s">
         <v>30</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C35" t="s">
@@ -2480,7 +2712,7 @@
       <c r="A36" t="s">
         <v>32</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C36" t="s">
@@ -2491,7 +2723,7 @@
       <c r="A37" t="s">
         <v>34</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C37" t="s">
@@ -2502,7 +2734,7 @@
       <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C38" t="s">
@@ -2513,7 +2745,7 @@
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2521,7 +2753,7 @@
       <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2529,7 +2761,7 @@
       <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2537,7 +2769,7 @@
       <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2545,7 +2777,7 @@
       <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2553,7 +2785,7 @@
       <c r="A44" t="s">
         <v>194</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>194</v>
       </c>
       <c r="C44">
@@ -2564,7 +2796,7 @@
       <c r="A45" t="s">
         <v>195</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>195</v>
       </c>
       <c r="C45">
@@ -2575,7 +2807,7 @@
       <c r="A46" t="s">
         <v>197</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>197</v>
       </c>
       <c r="C46">
@@ -2586,7 +2818,7 @@
       <c r="A47" t="s">
         <v>199</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C47">
@@ -2597,7 +2829,7 @@
       <c r="A48" t="s">
         <v>201</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C48">
@@ -2608,7 +2840,7 @@
       <c r="A49" t="s">
         <v>202</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C49">
@@ -2619,7 +2851,7 @@
       <c r="A50" t="s">
         <v>204</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>204</v>
       </c>
       <c r="C50">
@@ -2630,7 +2862,7 @@
       <c r="A51" t="s">
         <v>205</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>205</v>
       </c>
       <c r="C51">
@@ -2641,7 +2873,7 @@
       <c r="A52" t="s">
         <v>207</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>207</v>
       </c>
       <c r="C52">
@@ -2652,7 +2884,7 @@
       <c r="A53" t="s">
         <v>209</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C53">
@@ -2663,7 +2895,7 @@
       <c r="A54" t="s">
         <v>211</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C54">
@@ -2674,7 +2906,7 @@
       <c r="A55" t="s">
         <v>212</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>212</v>
       </c>
       <c r="C55">
@@ -2685,7 +2917,7 @@
       <c r="A56" t="s">
         <v>214</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>214</v>
       </c>
       <c r="C56">
@@ -2696,7 +2928,7 @@
       <c r="A57" t="s">
         <v>118</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C57">
@@ -2707,7 +2939,7 @@
       <c r="A58" t="s">
         <v>119</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C58">
@@ -2718,7 +2950,7 @@
       <c r="A59" t="s">
         <v>120</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C59">
@@ -2729,7 +2961,7 @@
       <c r="A60" t="s">
         <v>55</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C60" t="s">
@@ -2740,7 +2972,7 @@
       <c r="A61" t="s">
         <v>57</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C61" t="s">
@@ -2751,7 +2983,7 @@
       <c r="A62" t="s">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2759,7 +2991,7 @@
       <c r="A63" t="s">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C63" t="s">
@@ -2770,7 +3002,7 @@
       <c r="A64" t="s">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2778,7 +3010,7 @@
       <c r="A65" t="s">
         <v>65</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2786,7 +3018,7 @@
       <c r="A66" t="s">
         <v>66</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C66" t="s">
@@ -2797,7 +3029,7 @@
       <c r="A67" t="s">
         <v>68</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2805,7 +3037,7 @@
       <c r="A68" t="s">
         <v>69</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2813,7 +3045,7 @@
       <c r="A69" t="s">
         <v>70</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C69" t="s">
@@ -2824,7 +3056,7 @@
       <c r="A70" t="s">
         <v>73</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2832,7 +3064,7 @@
       <c r="A71" t="s">
         <v>74</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2840,7 +3072,7 @@
       <c r="A72" t="s">
         <v>75</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2848,7 +3080,7 @@
       <c r="A73" t="s">
         <v>76</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2856,7 +3088,7 @@
       <c r="A74" t="s">
         <v>77</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2864,7 +3096,7 @@
       <c r="A75" t="s">
         <v>78</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2872,7 +3104,7 @@
       <c r="A76" t="s">
         <v>79</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C76" t="s">
@@ -2883,7 +3115,7 @@
       <c r="A77" t="s">
         <v>81</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2891,7 +3123,7 @@
       <c r="A78" t="s">
         <v>82</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C78" t="s">
@@ -2902,7 +3134,7 @@
       <c r="A79" t="s">
         <v>84</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2910,7 +3142,7 @@
       <c r="A80" t="s">
         <v>85</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C80" t="s">
@@ -2921,7 +3153,7 @@
       <c r="A81" t="s">
         <v>87</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C81" t="s">
@@ -2932,7 +3164,7 @@
       <c r="A82" t="s">
         <v>89</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2940,7 +3172,7 @@
       <c r="A83" t="s">
         <v>90</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2948,7 +3180,7 @@
       <c r="A84" t="s">
         <v>91</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C84" t="s">
@@ -2959,7 +3191,7 @@
       <c r="A85" t="s">
         <v>93</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C85" t="s">
@@ -2970,7 +3202,7 @@
       <c r="A86" t="s">
         <v>96</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C86" t="s">
@@ -2981,7 +3213,7 @@
       <c r="A87" t="s">
         <v>99</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="1" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2989,7 +3221,7 @@
       <c r="A88" t="s">
         <v>65</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2997,7 +3229,7 @@
       <c r="A89" t="s">
         <v>64</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3005,7 +3237,7 @@
       <c r="A90" t="s">
         <v>100</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="1" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3013,7 +3245,7 @@
       <c r="A91" t="s">
         <v>101</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="1" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3021,7 +3253,7 @@
       <c r="A92" t="s">
         <v>102</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C92" t="s">
@@ -3032,7 +3264,7 @@
       <c r="A93" t="s">
         <v>105</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C93" t="s">
@@ -3043,7 +3275,7 @@
       <c r="A94" t="s">
         <v>107</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3051,7 +3283,7 @@
       <c r="A95" t="s">
         <v>109</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C95" t="s">
@@ -3062,7 +3294,7 @@
       <c r="A96" t="s">
         <v>111</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C96" t="s">
@@ -3073,7 +3305,7 @@
       <c r="A97" t="s">
         <v>113</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3081,7 +3313,7 @@
       <c r="A98" t="s">
         <v>114</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3089,7 +3321,7 @@
       <c r="A99" t="s">
         <v>115</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="1" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3097,7 +3329,7 @@
       <c r="A100" t="s">
         <v>116</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C100" t="s">
@@ -3108,7 +3340,7 @@
       <c r="A101" t="s">
         <v>248</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="1" t="s">
         <v>248</v>
       </c>
     </row>
@@ -3116,7 +3348,7 @@
       <c r="A102" t="s">
         <v>250</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="1" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3124,7 +3356,7 @@
       <c r="A103" t="s">
         <v>252</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="1" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3132,7 +3364,7 @@
       <c r="A104" t="s">
         <v>254</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -3140,7 +3372,7 @@
       <c r="A105" t="s">
         <v>255</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="1" t="s">
         <v>255</v>
       </c>
     </row>
@@ -3148,7 +3380,7 @@
       <c r="A106" t="s">
         <v>257</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="1" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3156,7 +3388,7 @@
       <c r="A107" t="s">
         <v>259</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="1" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3164,7 +3396,7 @@
       <c r="A108" t="s">
         <v>261</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="1" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3172,7 +3404,7 @@
       <c r="A109" t="s">
         <v>263</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="1" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3180,7 +3412,7 @@
       <c r="A110" t="s">
         <v>265</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="1" t="s">
         <v>265</v>
       </c>
     </row>
@@ -3188,7 +3420,7 @@
       <c r="A111" t="s">
         <v>267</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="1" t="s">
         <v>267</v>
       </c>
     </row>
@@ -3196,7 +3428,7 @@
       <c r="A112" t="s">
         <v>269</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="1" t="s">
         <v>269</v>
       </c>
     </row>
@@ -3204,7 +3436,7 @@
       <c r="A113" t="s">
         <v>271</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="1" t="s">
         <v>271</v>
       </c>
     </row>
@@ -3212,7 +3444,7 @@
       <c r="A114" t="s">
         <v>272</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="1" t="s">
         <v>272</v>
       </c>
     </row>
@@ -3220,7 +3452,7 @@
       <c r="A115" t="s">
         <v>274</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="1" t="s">
         <v>274</v>
       </c>
     </row>
@@ -3228,7 +3460,7 @@
       <c r="A116" t="s">
         <v>275</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="1" t="s">
         <v>275</v>
       </c>
     </row>
@@ -3236,7 +3468,7 @@
       <c r="A117" t="s">
         <v>277</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="1" t="s">
         <v>277</v>
       </c>
     </row>
@@ -3244,7 +3476,7 @@
       <c r="A118" t="s">
         <v>278</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="1" t="s">
         <v>278</v>
       </c>
     </row>
@@ -3252,7 +3484,7 @@
       <c r="A119" t="s">
         <v>279</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="1" t="s">
         <v>279</v>
       </c>
     </row>
@@ -3260,7 +3492,7 @@
       <c r="A120" t="s">
         <v>281</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="1" t="s">
         <v>281</v>
       </c>
     </row>
@@ -3268,7 +3500,7 @@
       <c r="A121" t="s">
         <v>282</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="1" t="s">
         <v>282</v>
       </c>
     </row>
@@ -3276,15 +3508,15 @@
       <c r="A122" t="s">
         <v>121</v>
       </c>
-      <c r="B122" t="s">
-        <v>492</v>
+      <c r="B122" s="1" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>283</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3292,7 +3524,7 @@
       <c r="A124" t="s">
         <v>122</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="1" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3300,15 +3532,15 @@
       <c r="A125" t="s">
         <v>285</v>
       </c>
-      <c r="B125" t="s">
-        <v>493</v>
+      <c r="B125" s="1" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>286</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="1" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3316,7 +3548,7 @@
       <c r="A127" t="s">
         <v>287</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="1" t="s">
         <v>288</v>
       </c>
     </row>
@@ -3324,7 +3556,7 @@
       <c r="A128" t="s">
         <v>289</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C128" t="s">
@@ -3335,15 +3567,15 @@
       <c r="A129" t="s">
         <v>129</v>
       </c>
-      <c r="B129" t="s">
-        <v>291</v>
+      <c r="B129" s="1" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>292</v>
-      </c>
-      <c r="B130" t="s">
+        <v>291</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3351,31 +3583,31 @@
       <c r="A131" t="s">
         <v>128</v>
       </c>
-      <c r="B131" t="s">
-        <v>293</v>
+      <c r="B131" s="1" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>127</v>
       </c>
-      <c r="B132" t="s">
-        <v>294</v>
+      <c r="B132" s="1" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>131</v>
       </c>
-      <c r="B133" t="s">
-        <v>494</v>
+      <c r="B133" s="1" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>295</v>
-      </c>
-      <c r="B134" t="s">
+        <v>294</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3383,55 +3615,55 @@
       <c r="A135" t="s">
         <v>132</v>
       </c>
-      <c r="B135" t="s">
-        <v>495</v>
+      <c r="B135" s="1" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>296</v>
-      </c>
-      <c r="B136" t="s">
-        <v>496</v>
+        <v>295</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>133</v>
       </c>
-      <c r="B137" t="s">
-        <v>297</v>
+      <c r="B137" s="1" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>134</v>
       </c>
-      <c r="B138" t="s">
-        <v>298</v>
+      <c r="B138" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>135</v>
       </c>
-      <c r="B139" t="s">
-        <v>299</v>
+      <c r="B139" s="1" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>136</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>300</v>
-      </c>
-      <c r="B141" t="s">
+        <v>298</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3439,15 +3671,15 @@
       <c r="A142" t="s">
         <v>139</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>302</v>
-      </c>
-      <c r="B143" t="s">
+        <v>300</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3455,7 +3687,7 @@
       <c r="A144" t="s">
         <v>142</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="1" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3463,7 +3695,7 @@
       <c r="A145" t="s">
         <v>147</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3471,7 +3703,7 @@
       <c r="A146" t="s">
         <v>144</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="1" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3479,15 +3711,15 @@
       <c r="A147" t="s">
         <v>146</v>
       </c>
-      <c r="B147" t="s">
-        <v>304</v>
+      <c r="B147" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>149</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="1" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3495,7 +3727,7 @@
       <c r="A149" t="s">
         <v>151</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="1" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3503,128 +3735,608 @@
       <c r="A150" t="s">
         <v>153</v>
       </c>
-      <c r="B150" t="s">
-        <v>305</v>
+      <c r="B150" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>306</v>
-      </c>
-      <c r="B151" t="s">
-        <v>306</v>
+        <v>304</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>307</v>
-      </c>
-      <c r="B152" t="s">
-        <v>307</v>
+        <v>305</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>308</v>
-      </c>
-      <c r="B153" t="s">
-        <v>308</v>
+        <v>306</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>309</v>
-      </c>
-      <c r="B154" t="s">
-        <v>309</v>
+        <v>307</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>310</v>
-      </c>
-      <c r="B155" t="s">
-        <v>310</v>
+        <v>308</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>311</v>
-      </c>
-      <c r="B156" t="s">
-        <v>311</v>
+        <v>309</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>312</v>
-      </c>
-      <c r="B157" t="s">
-        <v>497</v>
+        <v>310</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>313</v>
-      </c>
-      <c r="B158" t="s">
-        <v>313</v>
+        <v>311</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>314</v>
       </c>
-      <c r="B159" t="s">
-        <v>315</v>
+      <c r="B159" s="1" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>316</v>
-      </c>
-      <c r="B160" t="s">
-        <v>498</v>
+        <v>312</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>317</v>
-      </c>
-      <c r="B161" t="s">
-        <v>365</v>
+        <v>319</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>318</v>
-      </c>
-      <c r="B162" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>319</v>
-      </c>
-      <c r="B163" t="s">
-        <v>320</v>
+        <v>316</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>321</v>
-      </c>
-      <c r="B164" t="s">
-        <v>367</v>
+        <v>554</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>322</v>
-      </c>
-      <c r="B165" t="s">
-        <v>323</v>
+        <v>320</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>317</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>315</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>555</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>556</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>557</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>558</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>559</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>560</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>561</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>562</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>563</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>564</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>565</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>566</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>567</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>568</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>569</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>570</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>571</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>572</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>573</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>574</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>575</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>576</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>577</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>578</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>579</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>580</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>581</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>582</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>583</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>584</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>585</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>586</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>587</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>588</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>589</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>590</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>591</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>592</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>593</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>594</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>595</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>596</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>597</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>598</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>599</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>600</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>601</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>602</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>603</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>604</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>605</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>606</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>607</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>608</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>609</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>610</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>611</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>613</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -3664,7 +4376,7 @@
         <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3672,7 +4384,7 @@
         <v>165</v>
       </c>
       <c r="B3" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3704,7 +4416,7 @@
         <v>155</v>
       </c>
       <c r="B7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3712,7 +4424,7 @@
         <v>168</v>
       </c>
       <c r="B8" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3720,7 +4432,7 @@
         <v>170</v>
       </c>
       <c r="B9" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3728,7 +4440,7 @@
         <v>171</v>
       </c>
       <c r="B10" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3736,7 +4448,7 @@
         <v>173</v>
       </c>
       <c r="B11" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3744,7 +4456,7 @@
         <v>157</v>
       </c>
       <c r="B12" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3752,7 +4464,7 @@
         <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3760,7 +4472,7 @@
         <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3768,7 +4480,7 @@
         <v>159</v>
       </c>
       <c r="B15" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3776,7 +4488,7 @@
         <v>160</v>
       </c>
       <c r="B16" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3784,7 +4496,7 @@
         <v>161</v>
       </c>
       <c r="B17" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3792,7 +4504,7 @@
         <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3800,7 +4512,7 @@
         <v>163</v>
       </c>
       <c r="B19" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3824,7 +4536,7 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3832,7 +4544,7 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3840,7 +4552,7 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3848,7 +4560,7 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3856,7 +4568,7 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -3864,7 +4576,7 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -3872,7 +4584,7 @@
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -3896,7 +4608,7 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -3904,7 +4616,7 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -3912,7 +4624,7 @@
         <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -3920,7 +4632,7 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -3928,7 +4640,7 @@
         <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -3936,7 +4648,7 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -3944,7 +4656,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -3952,7 +4664,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -4000,7 +4712,7 @@
         <v>194</v>
       </c>
       <c r="B44" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -4011,7 +4723,7 @@
         <v>195</v>
       </c>
       <c r="B45" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -4022,7 +4734,7 @@
         <v>197</v>
       </c>
       <c r="B46" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -4033,7 +4745,7 @@
         <v>199</v>
       </c>
       <c r="B47" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -4044,7 +4756,7 @@
         <v>201</v>
       </c>
       <c r="B48" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -4055,7 +4767,7 @@
         <v>202</v>
       </c>
       <c r="B49" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -4066,7 +4778,7 @@
         <v>204</v>
       </c>
       <c r="B50" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="C50">
         <v>7</v>
@@ -4077,7 +4789,7 @@
         <v>205</v>
       </c>
       <c r="B51" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="C51">
         <v>8</v>
@@ -4088,7 +4800,7 @@
         <v>207</v>
       </c>
       <c r="B52" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="C52">
         <v>9</v>
@@ -4099,7 +4811,7 @@
         <v>209</v>
       </c>
       <c r="B53" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="C53">
         <v>10</v>
@@ -4110,7 +4822,7 @@
         <v>211</v>
       </c>
       <c r="B54" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="C54">
         <v>11</v>
@@ -4121,7 +4833,7 @@
         <v>212</v>
       </c>
       <c r="B55" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C55">
         <v>12</v>
@@ -4165,7 +4877,7 @@
         <v>120</v>
       </c>
       <c r="B59" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -4176,7 +4888,7 @@
         <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="C60" t="s">
         <v>154</v>
@@ -4187,7 +4899,7 @@
         <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="C61" t="s">
         <v>59</v>
@@ -4198,7 +4910,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -4206,7 +4918,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="C63" t="s">
         <v>62</v>
@@ -4217,7 +4929,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -4225,7 +4937,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -4233,7 +4945,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="C66" t="s">
         <v>67</v>
@@ -4244,7 +4956,7 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -4252,7 +4964,7 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -4260,7 +4972,7 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C69" t="s">
         <v>72</v>
@@ -4279,7 +4991,7 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -4287,7 +4999,7 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -4295,7 +5007,7 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -4311,7 +5023,7 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -4319,7 +5031,7 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C76" t="s">
         <v>80</v>
@@ -4330,7 +5042,7 @@
         <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -4338,7 +5050,7 @@
         <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="C78" t="s">
         <v>83</v>
@@ -4357,7 +5069,7 @@
         <v>85</v>
       </c>
       <c r="B80" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="C80" t="s">
         <v>86</v>
@@ -4368,7 +5080,7 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -4379,7 +5091,7 @@
         <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -4387,7 +5099,7 @@
         <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -4395,7 +5107,7 @@
         <v>91</v>
       </c>
       <c r="B84" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C84" t="s">
         <v>92</v>
@@ -4406,7 +5118,7 @@
         <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="C85" t="s">
         <v>95</v>
@@ -4417,7 +5129,7 @@
         <v>96</v>
       </c>
       <c r="B86" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="C86" t="s">
         <v>98</v>
@@ -4428,7 +5140,7 @@
         <v>99</v>
       </c>
       <c r="B87" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -4436,7 +5148,7 @@
         <v>65</v>
       </c>
       <c r="B88" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -4444,7 +5156,7 @@
         <v>64</v>
       </c>
       <c r="B89" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -4460,7 +5172,7 @@
         <v>101</v>
       </c>
       <c r="B91" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -4468,7 +5180,7 @@
         <v>102</v>
       </c>
       <c r="B92" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="C92" t="s">
         <v>104</v>
@@ -4479,7 +5191,7 @@
         <v>105</v>
       </c>
       <c r="B93" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="C93" t="s">
         <v>106</v>
@@ -4490,7 +5202,7 @@
         <v>107</v>
       </c>
       <c r="B94" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -4498,7 +5210,7 @@
         <v>109</v>
       </c>
       <c r="B95" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C95" t="s">
         <v>110</v>
@@ -4528,7 +5240,7 @@
         <v>114</v>
       </c>
       <c r="B98" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -4536,7 +5248,7 @@
         <v>115</v>
       </c>
       <c r="B99" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -4544,7 +5256,7 @@
         <v>116</v>
       </c>
       <c r="B100" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C100" t="s">
         <v>117</v>
@@ -4555,7 +5267,7 @@
         <v>248</v>
       </c>
       <c r="B101" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -4563,7 +5275,7 @@
         <v>250</v>
       </c>
       <c r="B102" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -4571,7 +5283,7 @@
         <v>252</v>
       </c>
       <c r="B103" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -4587,7 +5299,7 @@
         <v>255</v>
       </c>
       <c r="B105" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -4603,7 +5315,7 @@
         <v>259</v>
       </c>
       <c r="B107" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -4611,7 +5323,7 @@
         <v>261</v>
       </c>
       <c r="B108" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -4619,7 +5331,7 @@
         <v>263</v>
       </c>
       <c r="B109" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -4635,7 +5347,7 @@
         <v>267</v>
       </c>
       <c r="B111" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -4659,7 +5371,7 @@
         <v>272</v>
       </c>
       <c r="B114" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -4667,7 +5379,7 @@
         <v>274</v>
       </c>
       <c r="B115" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -4675,7 +5387,7 @@
         <v>275</v>
       </c>
       <c r="B116" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -4691,7 +5403,7 @@
         <v>278</v>
       </c>
       <c r="B118" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -4699,7 +5411,7 @@
         <v>279</v>
       </c>
       <c r="B119" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -4715,7 +5427,7 @@
         <v>282</v>
       </c>
       <c r="B121" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -4723,7 +5435,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -4739,7 +5451,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -4747,7 +5459,7 @@
         <v>285</v>
       </c>
       <c r="B125" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -4755,7 +5467,7 @@
         <v>286</v>
       </c>
       <c r="B126" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -4763,7 +5475,7 @@
         <v>287</v>
       </c>
       <c r="B127" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -4771,7 +5483,7 @@
         <v>289</v>
       </c>
       <c r="B128" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="C128" t="s">
         <v>126</v>
@@ -4782,15 +5494,15 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B130" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -4798,7 +5510,7 @@
         <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -4806,7 +5518,7 @@
         <v>127</v>
       </c>
       <c r="B132" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -4814,15 +5526,15 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B134" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -4830,15 +5542,15 @@
         <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B136" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -4846,7 +5558,7 @@
         <v>133</v>
       </c>
       <c r="B137" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -4854,7 +5566,7 @@
         <v>134</v>
       </c>
       <c r="B138" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -4862,7 +5574,7 @@
         <v>135</v>
       </c>
       <c r="B139" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -4870,15 +5582,15 @@
         <v>136</v>
       </c>
       <c r="B140" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B141" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -4886,15 +5598,15 @@
         <v>139</v>
       </c>
       <c r="B142" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B143" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -4902,7 +5614,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -4910,7 +5622,7 @@
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -4918,7 +5630,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -4926,7 +5638,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -4934,7 +5646,7 @@
         <v>149</v>
       </c>
       <c r="B148" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -4942,7 +5654,7 @@
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -4950,127 +5662,127 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B151" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B152" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B153" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B154" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B155" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B156" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B157" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B158" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B159" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B160" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B161" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B162" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B163" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B164" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B165" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -5083,9 +5795,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD92866-9610-471E-81FF-54D633F34B16}">
   <dimension ref="A1:C225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5104,7 +5816,7 @@
         <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5112,10 +5824,10 @@
         <v>164</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5123,10 +5835,10 @@
         <v>165</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5156,7 +5868,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1</v>
@@ -5167,7 +5879,7 @@
         <v>155</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>155</v>
@@ -5222,7 +5934,7 @@
         <v>157</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>157</v>
@@ -5233,7 +5945,7 @@
         <v>158</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>158</v>
@@ -5244,7 +5956,7 @@
         <v>123</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>123</v>
@@ -5266,7 +5978,7 @@
         <v>160</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>160</v>
@@ -5277,7 +5989,7 @@
         <v>161</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>161</v>
@@ -5288,7 +6000,7 @@
         <v>162</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>162</v>
@@ -5299,7 +6011,7 @@
         <v>163</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>163</v>
@@ -5310,7 +6022,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -5321,7 +6033,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -5365,7 +6077,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>12</v>
@@ -5541,7 +6253,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>40</v>
@@ -5574,7 +6286,7 @@
         <v>194</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>194</v>
@@ -5618,7 +6330,7 @@
         <v>201</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>201</v>
@@ -5640,7 +6352,7 @@
         <v>204</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>204</v>
@@ -5684,7 +6396,7 @@
         <v>211</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>211</v>
@@ -5717,7 +6429,7 @@
         <v>118</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>118</v>
@@ -5728,7 +6440,7 @@
         <v>119</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>119</v>
@@ -5816,7 +6528,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>67</v>
@@ -5959,7 +6671,7 @@
         <v>84</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>84</v>
@@ -5981,7 +6693,7 @@
         <v>87</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>87</v>
@@ -6036,7 +6748,7 @@
         <v>96</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>97</v>
@@ -6113,7 +6825,7 @@
         <v>105</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>106</v>
@@ -6234,7 +6946,7 @@
         <v>254</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>254</v>
@@ -6333,7 +7045,7 @@
         <v>271</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>271</v>
@@ -6355,7 +7067,7 @@
         <v>274</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>274</v>
@@ -6377,7 +7089,7 @@
         <v>277</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>277</v>
@@ -6388,7 +7100,7 @@
         <v>278</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>278</v>
@@ -6410,7 +7122,7 @@
         <v>281</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>281</v>
@@ -6421,7 +7133,7 @@
         <v>282</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>282</v>
@@ -6432,10 +7144,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -6454,7 +7166,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>284</v>
+        <v>615</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>284</v>
@@ -6465,10 +7177,10 @@
         <v>285</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>357</v>
+        <v>616</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -6476,7 +7188,7 @@
         <v>286</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>124</v>
+        <v>617</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>124</v>
@@ -6487,7 +7199,7 @@
         <v>287</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>288</v>
+        <v>618</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>288</v>
@@ -6498,7 +7210,7 @@
         <v>289</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>290</v>
+        <v>619</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>125</v>
@@ -6509,32 +7221,32 @@
         <v>129</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>291</v>
+        <v>620</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>358</v>
+        <v>621</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>128</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>293</v>
+        <v>622</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -6542,10 +7254,10 @@
         <v>127</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>294</v>
+        <v>623</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -6553,18 +7265,18 @@
         <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>359</v>
+        <v>624</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>131</v>
@@ -6575,21 +7287,21 @@
         <v>132</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>362</v>
+        <v>625</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -6597,10 +7309,10 @@
         <v>133</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>297</v>
+        <v>626</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -6608,10 +7320,10 @@
         <v>134</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>298</v>
+        <v>627</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -6619,10 +7331,10 @@
         <v>135</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>299</v>
+        <v>628</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -6630,7 +7342,7 @@
         <v>136</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>138</v>
@@ -6638,10 +7350,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>137</v>
@@ -6652,7 +7364,7 @@
         <v>139</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>141</v>
@@ -6660,10 +7372,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>140</v>
@@ -6674,7 +7386,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>143</v>
+        <v>629</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>143</v>
@@ -6685,18 +7397,18 @@
         <v>147</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>148</v>
+        <v>630</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>144</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>145</v>
+        <v>631</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>145</v>
@@ -6707,10 +7419,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>304</v>
+        <v>632</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -6718,7 +7430,7 @@
         <v>149</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>150</v>
+        <v>633</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>150</v>
@@ -6729,7 +7441,7 @@
         <v>151</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>152</v>
+        <v>634</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>152</v>
@@ -6740,835 +7452,835 @@
         <v>153</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>305</v>
+        <v>635</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>497</v>
+        <v>636</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>498</v>
+        <v>637</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>315</v>
+        <v>638</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>505</v>
+        <v>639</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>506</v>
+        <v>640</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>507</v>
+        <v>641</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>508</v>
+        <v>673</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>509</v>
+        <v>674</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>320</v>
+        <v>642</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>510</v>
+        <v>643</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>511</v>
+        <v>644</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>512</v>
+        <v>645</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>513</v>
+        <v>646</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>514</v>
+        <v>647</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>515</v>
+        <v>648</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>516</v>
+        <v>649</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>517</v>
+        <v>650</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>518</v>
+        <v>651</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>519</v>
+        <v>652</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>520</v>
+        <v>653</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>521</v>
+        <v>654</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>522</v>
+        <v>655</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>523</v>
+        <v>656</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>524</v>
+        <v>657</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>525</v>
+        <v>658</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>526</v>
+        <v>659</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>527</v>
+        <v>660</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>528</v>
+        <v>661</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>529</v>
+        <v>662</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>530</v>
+        <v>663</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>531</v>
+        <v>664</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>532</v>
+        <v>665</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>533</v>
+        <v>666</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>534</v>
+        <v>667</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>535</v>
+        <v>668</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>536</v>
+        <v>669</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>537</v>
+        <v>670</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>538</v>
+        <v>671</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>539</v>
+        <v>703</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>539</v>
+        <v>702</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>540</v>
+        <v>672</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>541</v>
+        <v>675</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>542</v>
+        <v>676</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>543</v>
+        <v>677</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>544</v>
+        <v>678</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>545</v>
+        <v>679</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>546</v>
+        <v>680</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>547</v>
+        <v>681</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>548</v>
+        <v>682</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>549</v>
+        <v>683</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>550</v>
+        <v>684</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>551</v>
+        <v>685</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>552</v>
+        <v>686</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>553</v>
+        <v>687</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>554</v>
+        <v>688</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>555</v>
+        <v>689</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>556</v>
+        <v>690</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>557</v>
+        <v>691</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>558</v>
+        <v>692</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>559</v>
+        <v>693</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>560</v>
+        <v>694</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>561</v>
+        <v>695</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>560</v>
+        <v>694</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>562</v>
+        <v>696</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>563</v>
+        <v>697</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>564</v>
+        <v>698</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>565</v>
+        <v>699</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>627</v>
+        <v>701</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
